--- a/Outputs/YD/criticality_output.xlsx
+++ b/Outputs/YD/criticality_output.xlsx
@@ -1044,40 +1044,40 @@
         <v>8.36339768589</v>
       </c>
       <c r="K2">
-        <v>949594164.5792758</v>
+        <v>94959416.45792758</v>
       </c>
       <c r="L2">
         <v>949594.1645792756</v>
       </c>
       <c r="M2">
-        <v>0.6480662628571463</v>
+        <v>0.6480662628571462</v>
       </c>
       <c r="N2">
-        <v>142285002.0728462</v>
+        <v>56914000.82913849</v>
       </c>
       <c r="O2">
         <v>284570.0041456925</v>
       </c>
       <c r="P2">
-        <v>0.6834561206148494</v>
+        <v>0.6834561206148495</v>
       </c>
       <c r="Q2">
-        <v>18044875.77166867</v>
+        <v>9022437.885834336</v>
       </c>
       <c r="R2">
         <v>180448.7577166867</v>
       </c>
       <c r="S2">
-        <v>0.6923487695478796</v>
+        <v>0.6923487695478795</v>
       </c>
       <c r="T2">
-        <v>1109924042.423791</v>
+        <v>160895855.1729004</v>
       </c>
       <c r="U2">
         <v>1414612.926441655</v>
       </c>
       <c r="V2">
-        <v>0.6530827649653862</v>
+        <v>0.6625788098182572</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>40653745.1547109</v>
+        <v>16261498.06188436</v>
       </c>
       <c r="O7">
         <v>81307.49030942182</v>
@@ -1210,7 +1210,7 @@
         <v>0.1952774399769712</v>
       </c>
       <c r="Q7">
-        <v>10270045.83238923</v>
+        <v>5135022.916194615</v>
       </c>
       <c r="R7">
         <v>102700.4583238923</v>
@@ -1219,13 +1219,13 @@
         <v>0.3940428122214489</v>
       </c>
       <c r="T7">
-        <v>50923790.98710013</v>
+        <v>21396520.97807898</v>
       </c>
       <c r="U7">
         <v>184007.9486333141</v>
       </c>
       <c r="V7">
-        <v>0.02998123213282449</v>
+        <v>0.08811216043242577</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1300,25 +1300,25 @@
         <v>1.06708313708</v>
       </c>
       <c r="K10">
-        <v>400048961.8655663</v>
+        <v>40004896.18655662</v>
       </c>
       <c r="L10">
         <v>400048.9618655663</v>
       </c>
       <c r="M10">
-        <v>0.2730200388193884</v>
+        <v>0.2730200388193883</v>
       </c>
       <c r="N10">
-        <v>40760000</v>
+        <v>16304000</v>
       </c>
       <c r="O10">
         <v>81520</v>
       </c>
       <c r="P10">
-        <v>0.1957878277430734</v>
+        <v>0.1957878277430735</v>
       </c>
       <c r="Q10">
-        <v>4076000</v>
+        <v>2038000</v>
       </c>
       <c r="R10">
         <v>40760</v>
@@ -1327,13 +1327,13 @@
         <v>0.1563886402093083</v>
       </c>
       <c r="T10">
-        <v>444884961.8655663</v>
+        <v>58346896.18655662</v>
       </c>
       <c r="U10">
         <v>522328.9618655663</v>
       </c>
       <c r="V10">
-        <v>0.2617651269899486</v>
+        <v>0.240276028181921</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1368,7 +1368,7 @@
         <v>1.95209439769</v>
       </c>
       <c r="K11">
-        <v>338208907.2782331</v>
+        <v>33820890.72782331</v>
       </c>
       <c r="L11">
         <v>338208.907278233</v>
@@ -1377,16 +1377,16 @@
         <v>0.2308162694975212</v>
       </c>
       <c r="N11">
-        <v>128340547.0022552</v>
+        <v>51336218.8009021</v>
       </c>
       <c r="O11">
         <v>256681.0940045105</v>
       </c>
       <c r="P11">
-        <v>0.6164748996302594</v>
+        <v>0.6164748996302595</v>
       </c>
       <c r="Q11">
-        <v>8700984.81068375</v>
+        <v>4350492.405341875</v>
       </c>
       <c r="R11">
         <v>87009.8481068375</v>
@@ -1395,13 +1395,13 @@
         <v>0.3338408201728846</v>
       </c>
       <c r="T11">
-        <v>475250439.091172</v>
+        <v>89507601.93406729</v>
       </c>
       <c r="U11">
         <v>681899.849389581</v>
       </c>
       <c r="V11">
-        <v>0.2796500427662476</v>
+        <v>0.3685976888306411</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1436,25 +1436,25 @@
         <v>1.27154743665</v>
       </c>
       <c r="K12">
-        <v>949594164.5792758</v>
+        <v>94959416.45792758</v>
       </c>
       <c r="L12">
         <v>949594.1645792756</v>
       </c>
       <c r="M12">
-        <v>0.6480662628571463</v>
+        <v>0.6480662628571462</v>
       </c>
       <c r="N12">
-        <v>170320242.9840972</v>
+        <v>68128097.19363886</v>
       </c>
       <c r="O12">
         <v>340640.4859681943</v>
       </c>
       <c r="P12">
-        <v>0.818121452270089</v>
+        <v>0.8181214522700891</v>
       </c>
       <c r="Q12">
-        <v>24184466.29976911</v>
+        <v>12092233.14988456</v>
       </c>
       <c r="R12">
         <v>241844.6629976911</v>
@@ -1463,13 +1463,13 @@
         <v>0.9279135914643607</v>
       </c>
       <c r="T12">
-        <v>1144098873.863142</v>
+        <v>175179746.801451</v>
       </c>
       <c r="U12">
         <v>1532079.313545161</v>
       </c>
       <c r="V12">
-        <v>0.6732022110411461</v>
+        <v>0.7214007347500566</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1504,40 +1504,40 @@
         <v>1.49326136758</v>
       </c>
       <c r="K13">
-        <v>681783.8984115495</v>
+        <v>572952.1500260012</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0003722357694272562</v>
+        <v>0.003910206828491089</v>
       </c>
       <c r="N13">
-        <v>94070.76301683037</v>
+        <v>79119.83707626333</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.0003614898988262742</v>
+        <v>0.0009501165991503608</v>
       </c>
       <c r="Q13">
-        <v>43168.13104072063</v>
+        <v>36327.05276986051</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.001325025576807759</v>
+        <v>0.002787604703380899</v>
       </c>
       <c r="T13">
-        <v>819022.7924691004</v>
+        <v>688399.039872125</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0.0004817620600399835</v>
+        <v>0.002834868654809993</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1572,40 +1572,40 @@
         <v>2.05987749639</v>
       </c>
       <c r="K14">
-        <v>1198301.213255653</v>
+        <v>998602.5811176295</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.0006542404054438087</v>
+        <v>0.006815128683010929</v>
       </c>
       <c r="N14">
-        <v>256440.7864834814</v>
+        <v>213877.5814667983</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.0009854363990250469</v>
+        <v>0.002568365252596091</v>
       </c>
       <c r="Q14">
-        <v>152734.3871376784</v>
+        <v>127408.6372424019</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.004688110523584612</v>
+        <v>0.009776871211609554</v>
       </c>
       <c r="T14">
-        <v>1607476.386876813</v>
+        <v>1339888.79982683</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0.0009455428380359997</v>
+        <v>0.00551774267475103</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1640,40 +1640,40 @@
         <v>1.21169629214</v>
       </c>
       <c r="K15">
-        <v>1452940.058289402</v>
+        <v>1219329.150727782</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0007932664027254127</v>
+        <v>0.008321513709543885</v>
       </c>
       <c r="N15">
-        <v>264657.9045483391</v>
+        <v>222256.7782477584</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.001017012683543729</v>
+        <v>0.002668987476343388</v>
       </c>
       <c r="Q15">
-        <v>118361.6439702196</v>
+        <v>99585.09848670993</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.003633055260734234</v>
+        <v>0.007641794964399712</v>
       </c>
       <c r="T15">
-        <v>1835959.606807961</v>
+        <v>1541171.02746225</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0.001079940253749863</v>
+        <v>0.006346634995693223</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1708,40 +1708,40 @@
         <v>1.23092827082</v>
       </c>
       <c r="K16">
-        <v>451755.5387244357</v>
+        <v>397034.9806534809</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0002466464387643953</v>
+        <v>0.002709630974297967</v>
       </c>
       <c r="N16">
-        <v>200027.4455456229</v>
+        <v>171438.5446420207</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.0007686543484273488</v>
+        <v>0.002058732841443521</v>
       </c>
       <c r="Q16">
-        <v>50252.07998532786</v>
+        <v>44178.23629110945</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.001542464073914587</v>
+        <v>0.003390075711684065</v>
       </c>
       <c r="T16">
-        <v>702035.0642553865</v>
+        <v>612651.761586611</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0.0004129480423327012</v>
+        <v>0.002522936806475833</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1814,40 +1814,40 @@
         <v>2.13220057407</v>
       </c>
       <c r="K18">
-        <v>10746020.52545495</v>
+        <v>9145599.545009404</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005867039729001101</v>
+        <v>0.0624156586024119</v>
       </c>
       <c r="N18">
-        <v>4204329.899508452</v>
+        <v>3581047.02546797</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.01615616522355278</v>
+        <v>0.04300327638384253</v>
       </c>
       <c r="Q18">
-        <v>1908520.603967383</v>
+        <v>1624674.296595468</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05858114662726338</v>
+        <v>0.1246715427024435</v>
       </c>
       <c r="T18">
-        <v>16858871.02893079</v>
+        <v>14351320.86707284</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0.009916652517521374</v>
+        <v>0.05909960259204129</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1882,40 +1882,40 @@
         <v>1.98960886837</v>
       </c>
       <c r="K19">
-        <v>5206514.013667852</v>
+        <v>4560533.593664057</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.00284261736662717</v>
+        <v>0.03112411673243383</v>
       </c>
       <c r="N19">
-        <v>1720721.86968293</v>
+        <v>1513411.914567627</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.00661229434769815</v>
+        <v>0.01817392242601088</v>
       </c>
       <c r="Q19">
-        <v>728084.2769625634</v>
+        <v>648957.5407261346</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.02234820609066786</v>
+        <v>0.04979861989584741</v>
       </c>
       <c r="T19">
-        <v>7655320.160313345</v>
+        <v>6722903.048957817</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0.004502979458703299</v>
+        <v>0.02768531915203907</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1950,40 +1950,40 @@
         <v>1.12941321348</v>
       </c>
       <c r="K20">
-        <v>2318098.402760204</v>
+        <v>2042421.779222911</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.001265619714061761</v>
+        <v>0.01393884565650713</v>
       </c>
       <c r="N20">
-        <v>976586.1288452081</v>
+        <v>854162.4950979971</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.003752770888530335</v>
+        <v>0.01025727548177383</v>
       </c>
       <c r="Q20">
-        <v>552065.4694108232</v>
+        <v>491727.5777370767</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0.01694539118109365</v>
+        <v>0.03773336959554385</v>
       </c>
       <c r="T20">
-        <v>3846750.001016235</v>
+        <v>3388311.852057985</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0.002262718720393007</v>
+        <v>0.01395327202069406</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -2018,40 +2018,40 @@
         <v>0.816891359512</v>
       </c>
       <c r="K21">
-        <v>6140467.89784107</v>
+        <v>5245111.343611508</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.003352531202220479</v>
+        <v>0.03579613095274195</v>
       </c>
       <c r="N21">
-        <v>2535261.793702572</v>
+        <v>2157655.963847801</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.009742363088302935</v>
+        <v>0.02591037623765018</v>
       </c>
       <c r="Q21">
-        <v>1789459.497920148</v>
+        <v>1526746.695218928</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0.0549266217054688</v>
+        <v>0.1171569379829949</v>
       </c>
       <c r="T21">
-        <v>10465189.18946379</v>
+        <v>8929514.002678238</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0.006155788518931177</v>
+        <v>0.03677227579164216</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -2086,40 +2086,40 @@
         <v>1.92898989424</v>
       </c>
       <c r="K22">
-        <v>482119.8888927742</v>
+        <v>448946.9615313687</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0002632245616482059</v>
+        <v>0.003063912884401636</v>
       </c>
       <c r="N22">
-        <v>216558.0333852742</v>
+        <v>194639.7096181925</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.0008321771724595647</v>
+        <v>0.002337345800949982</v>
       </c>
       <c r="Q22">
-        <v>152101.5482233083</v>
+        <v>140003.2055781897</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0.004668685829317706</v>
+        <v>0.01074333216158849</v>
       </c>
       <c r="T22">
-        <v>850779.4705013566</v>
+        <v>783589.8767277509</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0.0005004418364387867</v>
+        <v>0.003226870246905869</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2154,40 +2154,40 @@
         <v>0.839620944801</v>
       </c>
       <c r="K23">
-        <v>451755.5387244357</v>
+        <v>397034.9806534809</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0002466464387643953</v>
+        <v>0.002709630974297967</v>
       </c>
       <c r="N23">
-        <v>458006.2975801142</v>
+        <v>391754.8354265552</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.00176000114025237</v>
+        <v>0.0047044178260556</v>
       </c>
       <c r="Q23">
-        <v>50252.07998532786</v>
+        <v>44178.23629110945</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0.001542464073914587</v>
+        <v>0.003390075711684065</v>
       </c>
       <c r="T23">
-        <v>960013.9162898778</v>
+        <v>832968.0523711456</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0.0005646952517457721</v>
+        <v>0.003430212544404082</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>54980039.10773078</v>
+        <v>21992015.64309231</v>
       </c>
       <c r="O24">
         <v>109960.0782154616</v>
@@ -2249,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>54980039.10773078</v>
+        <v>21992015.64309231</v>
       </c>
       <c r="U24">
         <v>109960.0782154616</v>
       </c>
       <c r="V24">
-        <v>0.03235629190511184</v>
+        <v>0.09056444328317823</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2290,40 +2290,40 @@
         <v>1.00211526894</v>
       </c>
       <c r="K25">
-        <v>2318098.402760204</v>
+        <v>2042421.779222911</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.001265619714061761</v>
+        <v>0.01393884565650713</v>
       </c>
       <c r="N25">
-        <v>976586.1288452081</v>
+        <v>854162.4950979971</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.003752770888530335</v>
+        <v>0.01025727548177383</v>
       </c>
       <c r="Q25">
-        <v>552065.4694108232</v>
+        <v>491727.5777370767</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0.01694539118109365</v>
+        <v>0.03773336959554385</v>
       </c>
       <c r="T25">
-        <v>3846750.001016235</v>
+        <v>3388311.852057985</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0.002262718720393007</v>
+        <v>0.01395327202069406</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2384,40 +2384,40 @@
         <v>0.06113773866840001</v>
       </c>
       <c r="K27">
-        <v>8222972.695253717</v>
+        <v>6983020.210522823</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.004489523110370414</v>
+        <v>0.04765677781196648</v>
       </c>
       <c r="N27">
-        <v>2771738.154574533</v>
+        <v>2353216.917567459</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0.01065108130238946</v>
+        <v>0.02825878486866928</v>
       </c>
       <c r="Q27">
-        <v>2223252.323763244</v>
+        <v>1888336.944304328</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0.06824168945152476</v>
+        <v>0.1449040466029216</v>
       </c>
       <c r="T27">
-        <v>13217963.17359149</v>
+        <v>11224574.07239461</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0.007775013377643358</v>
+        <v>0.04622347121131264</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2452,7 +2452,7 @@
         <v>1.37461293692</v>
       </c>
       <c r="K28">
-        <v>479580073.7979977</v>
+        <v>47958007.37979978</v>
       </c>
       <c r="L28">
         <v>479580.0737979977</v>
@@ -2461,16 +2461,16 @@
         <v>0.3272973631895945</v>
       </c>
       <c r="N28">
-        <v>96839401.87141387</v>
+        <v>38735760.74856555</v>
       </c>
       <c r="O28">
         <v>193678.8037428277</v>
       </c>
       <c r="P28">
-        <v>0.4651613378886811</v>
+        <v>0.4651613378886812</v>
       </c>
       <c r="Q28">
-        <v>10603782.191986</v>
+        <v>5301891.095993002</v>
       </c>
       <c r="R28">
         <v>106037.82191986</v>
@@ -2479,13 +2479,13 @@
         <v>0.4068476639058807</v>
       </c>
       <c r="T28">
-        <v>587023257.8613975</v>
+        <v>91995659.22435834</v>
       </c>
       <c r="U28">
         <v>779296.6994606855</v>
       </c>
       <c r="V28">
-        <v>0.345410891486504</v>
+        <v>0.3788436584138175</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6889075.07592284</v>
+        <v>3444537.53796142</v>
       </c>
       <c r="R30">
         <v>68890.75075922839</v>
@@ -2567,13 +2567,13 @@
         <v>0.2643211686514746</v>
       </c>
       <c r="T30">
-        <v>6889075.07592284</v>
+        <v>3444537.53796142</v>
       </c>
       <c r="U30">
         <v>68890.75075922839</v>
       </c>
       <c r="V30">
-        <v>0.004062392730020498</v>
+        <v>0.01418481277733493</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2608,40 +2608,40 @@
         <v>1.09157805082</v>
       </c>
       <c r="K31">
-        <v>8222972.695253717</v>
+        <v>6983020.210522823</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.004489523110370414</v>
+        <v>0.04765677781196648</v>
       </c>
       <c r="N31">
-        <v>2771738.154574533</v>
+        <v>2353216.917567459</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0.01065108130238946</v>
+        <v>0.02825878486866928</v>
       </c>
       <c r="Q31">
-        <v>2343722.992823354</v>
+        <v>1987087.973205715</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0.07193948025023254</v>
+        <v>0.1524818381285144</v>
       </c>
       <c r="T31">
-        <v>13338433.84265161</v>
+        <v>11323325.101296</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0.007845876115816771</v>
+        <v>0.04663013388840583</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2676,40 +2676,40 @@
         <v>0.267963462789</v>
       </c>
       <c r="K32">
-        <v>1380407.382061742</v>
+        <v>1186308.553242479</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.0007536655019016692</v>
+        <v>0.008096159173808175</v>
       </c>
       <c r="N32">
-        <v>535203.2622726008</v>
+        <v>462027.7625984789</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0.002056649344874562</v>
+        <v>0.005548295632737282</v>
       </c>
       <c r="Q32">
-        <v>278761.2052612944</v>
+        <v>245431.5220118747</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32">
-        <v>0.008556444717158334</v>
+        <v>0.01883351422568106</v>
       </c>
       <c r="T32">
-        <v>2194371.849595638</v>
+        <v>1893767.837852833</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32">
-        <v>0.001290763959776891</v>
+        <v>0.007798649870304208</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2781,40 +2781,40 @@
         <v>0.056328213486</v>
       </c>
       <c r="K35">
-        <v>1380407.382061742</v>
+        <v>1186308.553242479</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0007536655019016692</v>
+        <v>0.008096159173808175</v>
       </c>
       <c r="N35">
-        <v>535203.2622726008</v>
+        <v>462027.7625984789</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0.002056649344874562</v>
+        <v>0.005548295632737282</v>
       </c>
       <c r="Q35">
-        <v>278761.2052612944</v>
+        <v>245431.5220118747</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0.008556444717158334</v>
+        <v>0.01883351422568106</v>
       </c>
       <c r="T35">
-        <v>2194371.849595638</v>
+        <v>1893767.837852833</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35">
-        <v>0.001290763959776891</v>
+        <v>0.007798649870304208</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2896,40 +2896,40 @@
         <v>0.264194119805</v>
       </c>
       <c r="K37">
-        <v>1053695.454278243</v>
+        <v>951621.5180151896</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.0005752895295402004</v>
+        <v>0.006494498637823745</v>
       </c>
       <c r="N37">
-        <v>749011.9325284049</v>
+        <v>651946.5198199695</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0.002878261417534404</v>
+        <v>0.007828949516695806</v>
       </c>
       <c r="Q37">
-        <v>242311.1223656935</v>
+        <v>219410.049737466</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0.00743762648368246</v>
+        <v>0.0168367219463685</v>
       </c>
       <c r="T37">
-        <v>2045018.509172342</v>
+        <v>1822978.087572625</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37">
-        <v>0.001202911981031264</v>
+        <v>0.007507133420501393</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -2964,40 +2964,40 @@
         <v>2.10348248279</v>
       </c>
       <c r="K38">
-        <v>2750759.468922983</v>
+        <v>2236834.975863214</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.001501841081623455</v>
+        <v>0.01526565071172369</v>
       </c>
       <c r="N38">
-        <v>873700.0172523122</v>
+        <v>724512.4524701581</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0.003357405858231913</v>
+        <v>0.008700363054584092</v>
       </c>
       <c r="Q38">
-        <v>284716.8795794215</v>
+        <v>231201.2971489979</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38">
-        <v>0.008739251352711112</v>
+        <v>0.01774153899693818</v>
       </c>
       <c r="T38">
-        <v>3909176.365754717</v>
+        <v>3192548.72548237</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0.002299438887833711</v>
+        <v>0.01314710768990141</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3032,7 +3032,7 @@
         <v>2.38708725473</v>
       </c>
       <c r="K39">
-        <v>812069209.6595547</v>
+        <v>81206920.96595548</v>
       </c>
       <c r="L39">
         <v>812069.2096595548</v>
@@ -3041,7 +3041,7 @@
         <v>0.5542100799646275</v>
       </c>
       <c r="N39">
-        <v>127345952.0073798</v>
+        <v>50938380.80295192</v>
       </c>
       <c r="O39">
         <v>254691.9040147596</v>
@@ -3050,7 +3050,7 @@
         <v>0.6116974316829876</v>
       </c>
       <c r="Q39">
-        <v>13458898.65748832</v>
+        <v>6729449.328744158</v>
       </c>
       <c r="R39">
         <v>134588.9865748831</v>
@@ -3059,13 +3059,13 @@
         <v>0.5163932433168507</v>
       </c>
       <c r="T39">
-        <v>952874060.3244228</v>
+        <v>138874751.0976515</v>
       </c>
       <c r="U39">
         <v>1201350.100249198</v>
       </c>
       <c r="V39">
-        <v>0.5606721396616851</v>
+        <v>0.5718945786217293</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3100,40 +3100,40 @@
         <v>0.809233788042</v>
       </c>
       <c r="K40">
-        <v>12948790.31276535</v>
+        <v>10590412.87960429</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.007069693104302215</v>
+        <v>0.07227602646484424</v>
       </c>
       <c r="N40">
-        <v>3882140.856131742</v>
+        <v>3203987.415000301</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>0.0149180750778149</v>
+        <v>0.03847532728772413</v>
       </c>
       <c r="Q40">
-        <v>2268232.852821193</v>
+        <v>1855537.009191418</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40">
-        <v>0.06962234573715143</v>
+        <v>0.142387099963441</v>
       </c>
       <c r="T40">
-        <v>19099164.02171829</v>
+        <v>15649937.30379601</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40">
-        <v>0.01123442801439702</v>
+        <v>0.06444738319291397</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3168,40 +3168,40 @@
         <v>3.8055081842</v>
       </c>
       <c r="K41">
-        <v>8288693.112983692</v>
+        <v>6557625.69255192</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0.004525404700296186</v>
+        <v>0.04475360247891814</v>
       </c>
       <c r="N41">
-        <v>1848748.370966375</v>
+        <v>1458513.393954445</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41">
-        <v>0.007104267469971586</v>
+        <v>0.01751466935331933</v>
       </c>
       <c r="Q41">
-        <v>1381804.092821479</v>
+        <v>1089228.975745879</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0.04241382985515368</v>
+        <v>0.08358343395165639</v>
       </c>
       <c r="T41">
-        <v>11519245.57677155</v>
+        <v>9105368.062252244</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
       <c r="V41">
-        <v>0.006775801028005331</v>
+        <v>0.0374964533869509</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3304,40 +3304,40 @@
         <v>1.33621799391</v>
       </c>
       <c r="K43">
-        <v>5755075.588151269</v>
+        <v>4803771.207998958</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.003142117311157691</v>
+        <v>0.03278413211151052</v>
       </c>
       <c r="N43">
-        <v>1722337.817997524</v>
+        <v>1442493.298234135</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0.006618504024052604</v>
+        <v>0.01732229081177642</v>
       </c>
       <c r="Q43">
-        <v>1291306.588974191</v>
+        <v>1073225.866236545</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
-        <v>0.03963605133326671</v>
+        <v>0.08235541406191867</v>
       </c>
       <c r="T43">
-        <v>8768719.995122982</v>
+        <v>7319490.372469638</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
       <c r="V43">
-        <v>0.005157898714917166</v>
+        <v>0.03014210163621395</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3372,40 +3372,40 @@
         <v>1.88334736224</v>
       </c>
       <c r="K44">
-        <v>6750758.932711588</v>
+        <v>5884346.331655965</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.003685733780733788</v>
+        <v>0.0401586959857005</v>
       </c>
       <c r="N44">
-        <v>2503534.605263549</v>
+        <v>2178867.194020432</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0.009620443612250503</v>
+        <v>0.02616509291326707</v>
       </c>
       <c r="Q44">
-        <v>1363014.617028391</v>
+        <v>1194398.573596514</v>
       </c>
       <c r="R44">
         <v>0</v>
       </c>
       <c r="S44">
-        <v>0.04183709569037906</v>
+        <v>0.0916537629012249</v>
       </c>
       <c r="T44">
-        <v>10617308.15500353</v>
+        <v>9257612.099272912</v>
       </c>
       <c r="U44">
         <v>0</v>
       </c>
       <c r="V44">
-        <v>0.006245267281773226</v>
+        <v>0.03812340348919363</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3487,7 +3487,7 @@
         <v>0.485694420479</v>
       </c>
       <c r="K46">
-        <v>1465273258.312778</v>
+        <v>146527325.8312778</v>
       </c>
       <c r="L46">
         <v>1465273.258312778</v>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <v>208184545.8415737</v>
+        <v>83273818.33662945</v>
       </c>
       <c r="O46">
         <v>416369.0916831474</v>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>26063274.12620725</v>
+        <v>13031637.06310362</v>
       </c>
       <c r="R46">
         <v>260632.7412620725</v>
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="T46">
-        <v>1699521078.280559</v>
+        <v>242832781.2310109</v>
       </c>
       <c r="U46">
         <v>2142275.091257998</v>
@@ -3623,7 +3623,7 @@
         <v>0.319177329151</v>
       </c>
       <c r="K48">
-        <v>812069209.6595547</v>
+        <v>81206920.96595548</v>
       </c>
       <c r="L48">
         <v>812069.2096595548</v>
@@ -3632,7 +3632,7 @@
         <v>0.5542100799646275</v>
       </c>
       <c r="N48">
-        <v>127345952.0073798</v>
+        <v>50938380.80295192</v>
       </c>
       <c r="O48">
         <v>254691.9040147596</v>
@@ -3641,7 +3641,7 @@
         <v>0.6116974316829876</v>
       </c>
       <c r="Q48">
-        <v>13458898.65748832</v>
+        <v>6729449.328744158</v>
       </c>
       <c r="R48">
         <v>134588.9865748831</v>
@@ -3650,13 +3650,13 @@
         <v>0.5163932433168507</v>
       </c>
       <c r="T48">
-        <v>952874060.3244228</v>
+        <v>138874751.0976515</v>
       </c>
       <c r="U48">
         <v>1201350.100249198</v>
       </c>
       <c r="V48">
-        <v>0.5606721396616851</v>
+        <v>0.5718945786217293</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3759,16 +3759,16 @@
         <v>2.52176716247</v>
       </c>
       <c r="K50">
-        <v>971224463.1848595</v>
+        <v>97122446.31848593</v>
       </c>
       <c r="L50">
         <v>971224.4631848595</v>
       </c>
       <c r="M50">
-        <v>0.6628282183373755</v>
+        <v>0.6628282183373754</v>
       </c>
       <c r="N50">
-        <v>113000000</v>
+        <v>45200000</v>
       </c>
       <c r="O50">
         <v>226000</v>
@@ -3777,7 +3777,7 @@
         <v>0.5427876480610231</v>
       </c>
       <c r="Q50">
-        <v>17999110.10670129</v>
+        <v>8999555.053350646</v>
       </c>
       <c r="R50">
         <v>179991.1010670129</v>
@@ -3786,13 +3786,13 @@
         <v>0.6905928249667894</v>
       </c>
       <c r="T50">
-        <v>1102223573.291561</v>
+        <v>151322001.3718366</v>
       </c>
       <c r="U50">
         <v>1377215.564251872</v>
       </c>
       <c r="V50">
-        <v>0.6485477287440109</v>
+        <v>0.6231531039785005</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3806,40 +3806,40 @@
         <v>0.537239778969</v>
       </c>
       <c r="K51">
-        <v>2750759.468922983</v>
+        <v>2236834.975863214</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0.001501841081623455</v>
+        <v>0.01526565071172369</v>
       </c>
       <c r="N51">
-        <v>1812534.575071568</v>
+        <v>1493231.279019115</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
-        <v>0.006965107108193857</v>
+        <v>0.01793158172455617</v>
       </c>
       <c r="Q51">
-        <v>284716.8795794215</v>
+        <v>231201.2971489979</v>
       </c>
       <c r="R51">
         <v>0</v>
       </c>
       <c r="S51">
-        <v>0.008739251352711112</v>
+        <v>0.01774153899693818</v>
       </c>
       <c r="T51">
-        <v>4848010.923573973</v>
+        <v>3961267.552031327</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
       <c r="V51">
-        <v>0.002851676108544263</v>
+        <v>0.01631273805764679</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3942,40 +3942,40 @@
         <v>1.32123981277</v>
       </c>
       <c r="K53">
-        <v>2137581.371410036</v>
+        <v>1788901.725332266</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53">
-        <v>0.001167062244142176</v>
+        <v>0.01220865606591454</v>
       </c>
       <c r="N53">
-        <v>761027.193430563</v>
+        <v>636449.757327443</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
       <c r="P53">
-        <v>0.002924432994213497</v>
+        <v>0.007642855462140967</v>
       </c>
       <c r="Q53">
-        <v>277334.6518753467</v>
+        <v>232089.3251715975</v>
       </c>
       <c r="R53">
         <v>0</v>
       </c>
       <c r="S53">
-        <v>0.008512657328696245</v>
+        <v>0.01780968300818554</v>
       </c>
       <c r="T53">
-        <v>3175943.216715946</v>
+        <v>2657440.807831306</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
       <c r="V53">
-        <v>0.001868139642417596</v>
+        <v>0.01094350109717369</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4010,40 +4010,40 @@
         <v>2.14126312243</v>
       </c>
       <c r="K54">
-        <v>452645.0571144288</v>
+        <v>388623.2705495929</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0.000247132092008906</v>
+        <v>0.002652223865718275</v>
       </c>
       <c r="N54">
-        <v>140219.3348680102</v>
+        <v>122459.8757964345</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54">
-        <v>0.0005388270653854035</v>
+        <v>0.001470568760296276</v>
       </c>
       <c r="Q54">
-        <v>124670.4963372683</v>
+        <v>107280.9555874978</v>
       </c>
       <c r="R54">
         <v>0</v>
       </c>
       <c r="S54">
-        <v>0.00382670253118841</v>
+        <v>0.008232346793269864</v>
       </c>
       <c r="T54">
-        <v>717534.8883197074</v>
+        <v>618364.1019335252</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
       <c r="V54">
-        <v>0.0004220652820971443</v>
+        <v>0.002546460567633433</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4078,40 +4078,40 @@
         <v>0.854734557699</v>
       </c>
       <c r="K55">
-        <v>2750759.468922983</v>
+        <v>2236834.975863214</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0.001501841081623455</v>
+        <v>0.01526565071172369</v>
       </c>
       <c r="N55">
-        <v>1812534.575071568</v>
+        <v>1493231.279019115</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55">
-        <v>0.006965107108193857</v>
+        <v>0.01793158172455617</v>
       </c>
       <c r="Q55">
-        <v>284716.8795794215</v>
+        <v>231201.2971489979</v>
       </c>
       <c r="R55">
         <v>0</v>
       </c>
       <c r="S55">
-        <v>0.008739251352711112</v>
+        <v>0.01774153899693818</v>
       </c>
       <c r="T55">
-        <v>4848010.923573973</v>
+        <v>3961267.552031327</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
       <c r="V55">
-        <v>0.002851676108544263</v>
+        <v>0.01631273805764679</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4288,13 +4288,13 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>36256.47605495799</v>
+        <v>33005.00860263166</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
       <c r="P58">
-        <v>0.000139324370724612</v>
+        <v>0.0003963431635764663</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>36256.47605495799</v>
+        <v>33005.00860263166</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
       <c r="V58">
-        <v>2.132662821430073e-05</v>
+        <v>0.0001359166107447143</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4347,40 +4347,40 @@
         <v>3.03506637683</v>
       </c>
       <c r="K59">
-        <v>2733842.878993499</v>
+        <v>2105052.766400618</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0.001492605076075131</v>
+        <v>0.01436628120016691</v>
       </c>
       <c r="N59">
-        <v>730237.3273699547</v>
+        <v>565921.3794746553</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
       <c r="P59">
-        <v>0.002806115408492071</v>
+        <v>0.006795910056471192</v>
       </c>
       <c r="Q59">
-        <v>370330.2231748226</v>
+        <v>281053.5116978547</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59">
-        <v>0.0113671128617704</v>
+        <v>0.0215670149757009</v>
       </c>
       <c r="T59">
-        <v>3834410.429538276</v>
+        <v>2952027.657573128</v>
       </c>
       <c r="U59">
         <v>0</v>
       </c>
       <c r="V59">
-        <v>0.002255460390795963</v>
+        <v>0.01215662746441476</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4415,40 +4415,40 @@
         <v>1.27509494451</v>
       </c>
       <c r="K60">
-        <v>4222987.240793746</v>
+        <v>3317781.256750071</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.002305638059978737</v>
+        <v>0.02264274760989227</v>
       </c>
       <c r="N60">
-        <v>1144254.576188908</v>
+        <v>909503.5392919782</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
       <c r="P60">
-        <v>0.004397077877470018</v>
+        <v>0.01092184263264312</v>
       </c>
       <c r="Q60">
-        <v>588642.4269717054</v>
+        <v>459774.0479237962</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0.01806810377303476</v>
+        <v>0.03528137299231199</v>
       </c>
       <c r="T60">
-        <v>5955884.24395436</v>
+        <v>4687058.843965845</v>
       </c>
       <c r="U60">
         <v>0</v>
       </c>
       <c r="V60">
-        <v>0.003503344582239307</v>
+        <v>0.0193015902556705</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4483,40 +4483,40 @@
         <v>0.522623481804</v>
       </c>
       <c r="K61">
-        <v>5755075.588151269</v>
+        <v>4803771.207998958</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.003142117311157691</v>
+        <v>0.03278413211151052</v>
       </c>
       <c r="N61">
-        <v>1722337.817997524</v>
+        <v>1442493.298234135</v>
       </c>
       <c r="O61">
         <v>0</v>
       </c>
       <c r="P61">
-        <v>0.006618504024052604</v>
+        <v>0.01732229081177642</v>
       </c>
       <c r="Q61">
-        <v>1291306.588974191</v>
+        <v>1073225.866236545</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61">
-        <v>0.03963605133326671</v>
+        <v>0.08235541406191867</v>
       </c>
       <c r="T61">
-        <v>8768719.995122982</v>
+        <v>7319490.372469638</v>
       </c>
       <c r="U61">
         <v>0</v>
       </c>
       <c r="V61">
-        <v>0.005157898714917166</v>
+        <v>0.03014210163621395</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4619,40 +4619,40 @@
         <v>0.335180186786</v>
       </c>
       <c r="K63">
-        <v>13697802.66264084</v>
+        <v>11453671.20459281</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.007478633809731017</v>
+        <v>0.07816747585894931</v>
       </c>
       <c r="N63">
-        <v>6128335.569179416</v>
+        <v>5119589.392224001</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
       <c r="P63">
-        <v>0.02354962725751225</v>
+        <v>0.06147897976202275</v>
       </c>
       <c r="Q63">
-        <v>3313434.212873048</v>
+        <v>2751523.762006919</v>
       </c>
       <c r="R63">
         <v>0</v>
       </c>
       <c r="S63">
-        <v>0.1017043122618677</v>
+        <v>0.2111418349577343</v>
       </c>
       <c r="T63">
-        <v>23139572.4446933</v>
+        <v>19324784.35882373</v>
       </c>
       <c r="U63">
         <v>0</v>
       </c>
       <c r="V63">
-        <v>0.01361105965780612</v>
+        <v>0.07958062441511857</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4666,40 +4666,40 @@
         <v>0.0248282024769</v>
       </c>
       <c r="K64">
-        <v>5755075.588151269</v>
+        <v>4803771.207998958</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.003142117311157691</v>
+        <v>0.03278413211151052</v>
       </c>
       <c r="N64">
-        <v>3447803.485135965</v>
+        <v>2863987.628355243</v>
       </c>
       <c r="O64">
         <v>0</v>
       </c>
       <c r="P64">
-        <v>0.01324902757291008</v>
+        <v>0.03439241391307101</v>
       </c>
       <c r="Q64">
-        <v>1291306.588974191</v>
+        <v>1073225.866236545</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64">
-        <v>0.03963605133326671</v>
+        <v>0.08235541406191867</v>
       </c>
       <c r="T64">
-        <v>10494185.66226142</v>
+        <v>8740984.702590747</v>
       </c>
       <c r="U64">
         <v>0</v>
       </c>
       <c r="V64">
-        <v>0.006172844699293104</v>
+        <v>0.03599590079345714</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4811,13 +4811,13 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>36256.47605495799</v>
+        <v>33005.00860263166</v>
       </c>
       <c r="O66">
         <v>0</v>
       </c>
       <c r="P66">
-        <v>0.000139324370724612</v>
+        <v>0.0003963431635764663</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -4829,13 +4829,13 @@
         <v>0</v>
       </c>
       <c r="T66">
-        <v>36256.47605495799</v>
+        <v>33005.00860263166</v>
       </c>
       <c r="U66">
         <v>0</v>
       </c>
       <c r="V66">
-        <v>2.132662821430073e-05</v>
+        <v>0.0001359166107447143</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -4917,7 +4917,7 @@
         <v>0.122908038336</v>
       </c>
       <c r="K68">
-        <v>545044893.2410928</v>
+        <v>54504489.32410929</v>
       </c>
       <c r="L68">
         <v>545044.8932410929</v>
@@ -4926,7 +4926,7 @@
         <v>0.3719749133132322</v>
       </c>
       <c r="N68">
-        <v>105331132.729567</v>
+        <v>42132453.0918268</v>
       </c>
       <c r="O68">
         <v>210662.265459134</v>
@@ -4935,7 +4935,7 @@
         <v>0.505950777007833</v>
       </c>
       <c r="Q68">
-        <v>5001000</v>
+        <v>2500500</v>
       </c>
       <c r="R68">
         <v>50010</v>
@@ -4944,13 +4944,13 @@
         <v>0.1918791927592618</v>
       </c>
       <c r="T68">
-        <v>655377025.9706599</v>
+        <v>99137442.41593608</v>
       </c>
       <c r="U68">
         <v>805717.1587002269</v>
       </c>
       <c r="V68">
-        <v>0.3856215358450658</v>
+        <v>0.4082539511896666</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5168,40 +5168,40 @@
         <v>0.991236996503</v>
       </c>
       <c r="K72">
-        <v>1941891.141549958</v>
+        <v>1623702.073196552</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.001060220613750089</v>
+        <v>0.01108122368292042</v>
       </c>
       <c r="N72">
-        <v>777644.9311293727</v>
+        <v>649638.6795240704</v>
       </c>
       <c r="O72">
         <v>0</v>
       </c>
       <c r="P72">
-        <v>0.002988290712879919</v>
+        <v>0.007801235640449975</v>
       </c>
       <c r="Q72">
-        <v>298310.1848932652</v>
+        <v>249224.8913415703</v>
       </c>
       <c r="R72">
         <v>0</v>
       </c>
       <c r="S72">
-        <v>0.009156491496770383</v>
+        <v>0.01912460346576094</v>
       </c>
       <c r="T72">
-        <v>3017846.257572596</v>
+        <v>2522565.644062193</v>
       </c>
       <c r="U72">
         <v>0</v>
       </c>
       <c r="V72">
-        <v>0.001775144529920979</v>
+        <v>0.01038807705975428</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5236,40 +5236,40 @@
         <v>0.260711785569</v>
       </c>
       <c r="K73">
-        <v>1019164.404368536</v>
+        <v>852370.9142251739</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0.000556436500065292</v>
+        <v>0.005817146456399919</v>
       </c>
       <c r="N73">
-        <v>330474.3614223583</v>
+        <v>279305.1234743993</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
       <c r="P73">
-        <v>0.001269928505351577</v>
+        <v>0.003354056881904046</v>
       </c>
       <c r="Q73">
-        <v>177004.8257507096</v>
+        <v>147266.2833579623</v>
       </c>
       <c r="R73">
         <v>0</v>
       </c>
       <c r="S73">
-        <v>0.005433080276671058</v>
+        <v>0.01130067409373425</v>
       </c>
       <c r="T73">
-        <v>1526643.591541604</v>
+        <v>1278942.321057535</v>
       </c>
       <c r="U73">
         <v>0</v>
       </c>
       <c r="V73">
-        <v>0.0008979957192530387</v>
+        <v>0.005266761409123163</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5304,40 +5304,40 @@
         <v>0.316551649778</v>
       </c>
       <c r="K74">
-        <v>806590.7982623202</v>
+        <v>677560.8531851365</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0.0004403769979074552</v>
+        <v>0.004624126246358507</v>
       </c>
       <c r="N74">
-        <v>198207.0407595916</v>
+        <v>167236.6035792994</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
       <c r="P74">
-        <v>0.0007616589981099757</v>
+        <v>0.002008273511648708</v>
       </c>
       <c r="Q74">
-        <v>138906.0227504917</v>
+        <v>117354.8807520564</v>
       </c>
       <c r="R74">
         <v>0</v>
       </c>
       <c r="S74">
-        <v>0.00426365535129198</v>
+        <v>0.009005382837458111</v>
       </c>
       <c r="T74">
-        <v>1143703.861772404</v>
+        <v>962152.3375164922</v>
       </c>
       <c r="U74">
         <v>0</v>
       </c>
       <c r="V74">
-        <v>0.0006727445604561062</v>
+        <v>0.003962201201332783</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5576,40 +5576,40 @@
         <v>0.252861482067</v>
       </c>
       <c r="K78">
-        <v>676507.9832440813</v>
+        <v>564736.8360128107</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.000369355260887276</v>
+        <v>0.003854140057555474</v>
       </c>
       <c r="N78">
-        <v>153705.8303747428</v>
+        <v>128238.4571786982</v>
       </c>
       <c r="O78">
         <v>0</v>
       </c>
       <c r="P78">
-        <v>0.0005906522206185713</v>
+        <v>0.001539961295641589</v>
       </c>
       <c r="Q78">
-        <v>130444.8673776483</v>
+        <v>109958.9457875906</v>
       </c>
       <c r="R78">
         <v>0</v>
       </c>
       <c r="S78">
-        <v>0.004003944147492441</v>
+        <v>0.008437845932566412</v>
       </c>
       <c r="T78">
-        <v>960658.6809964724</v>
+        <v>802934.2389790994</v>
       </c>
       <c r="U78">
         <v>0</v>
       </c>
       <c r="V78">
-        <v>0.0005650745124649439</v>
+        <v>0.003306531494260055</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5644,7 +5644,7 @@
         <v>0.17971801134</v>
       </c>
       <c r="K79">
-        <v>447933392.397813</v>
+        <v>44793339.2397813</v>
       </c>
       <c r="L79">
         <v>447933.392397813</v>
@@ -5653,16 +5653,16 @@
         <v>0.3056995614003057</v>
       </c>
       <c r="N79">
-        <v>38720000</v>
+        <v>15488000</v>
       </c>
       <c r="O79">
         <v>77440</v>
       </c>
       <c r="P79">
-        <v>0.1859888294948921</v>
+        <v>0.1859888294948922</v>
       </c>
       <c r="Q79">
-        <v>3872000</v>
+        <v>1936000</v>
       </c>
       <c r="R79">
         <v>38720.00000000001</v>
@@ -5671,13 +5671,13 @@
         <v>0.1485615345658591</v>
       </c>
       <c r="T79">
-        <v>490525392.397813</v>
+        <v>62217339.2397813</v>
       </c>
       <c r="U79">
         <v>564093.392397813</v>
       </c>
       <c r="V79">
-        <v>0.2886176861202601</v>
+        <v>0.2562147454902018</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5916,40 +5916,40 @@
         <v>0.251362767065</v>
       </c>
       <c r="K83">
-        <v>676507.9832440813</v>
+        <v>564736.8360128107</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.000369355260887276</v>
+        <v>0.003854140057555474</v>
       </c>
       <c r="N83">
-        <v>153705.8303747428</v>
+        <v>128238.4571786982</v>
       </c>
       <c r="O83">
         <v>0</v>
       </c>
       <c r="P83">
-        <v>0.0005906522206185713</v>
+        <v>0.001539961295641589</v>
       </c>
       <c r="Q83">
-        <v>130444.8673776483</v>
+        <v>109958.9457875906</v>
       </c>
       <c r="R83">
         <v>0</v>
       </c>
       <c r="S83">
-        <v>0.004003944147492441</v>
+        <v>0.008437845932566412</v>
       </c>
       <c r="T83">
-        <v>960658.6809964724</v>
+        <v>802934.2389790994</v>
       </c>
       <c r="U83">
         <v>0</v>
       </c>
       <c r="V83">
-        <v>0.0005650745124649439</v>
+        <v>0.003306531494260055</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6161,40 +6161,40 @@
         <v>0.618859202509</v>
       </c>
       <c r="K87">
-        <v>5003794.668819826</v>
+        <v>4114224.874335848</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0.00273193802749478</v>
+        <v>0.02807820896883948</v>
       </c>
       <c r="N87">
-        <v>1578611.643744745</v>
+        <v>1300491.906021852</v>
       </c>
       <c r="O87">
         <v>0</v>
       </c>
       <c r="P87">
-        <v>0.006066201071220927</v>
+        <v>0.01561705626088492</v>
       </c>
       <c r="Q87">
-        <v>497625.6598711411</v>
+        <v>399378.9104885311</v>
       </c>
       <c r="R87">
         <v>0</v>
       </c>
       <c r="S87">
-        <v>0.0152743867086374</v>
+        <v>0.03064687180548403</v>
       </c>
       <c r="T87">
-        <v>7080031.972435713</v>
+        <v>5814095.690846231</v>
       </c>
       <c r="U87">
         <v>0</v>
       </c>
       <c r="V87">
-        <v>0.00416458591818525</v>
+        <v>0.02394279578470579</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6217,13 +6217,13 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>64965926.86500433</v>
+        <v>25986370.74600173</v>
       </c>
       <c r="O88">
         <v>129931.8537300087</v>
       </c>
       <c r="P88">
-        <v>0.3120593154615941</v>
+        <v>0.3120593154615942</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -6235,13 +6235,13 @@
         <v>0</v>
       </c>
       <c r="T88">
-        <v>64965926.86500433</v>
+        <v>25986370.74600173</v>
       </c>
       <c r="U88">
         <v>129931.8537300087</v>
       </c>
       <c r="V88">
-        <v>0.03823308472755626</v>
+        <v>0.1070134378656252</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6276,40 +6276,40 @@
         <v>0.8424942164820001</v>
       </c>
       <c r="K89">
-        <v>4072418.566153789</v>
+        <v>3408842.208693869</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0.002223431591643496</v>
+        <v>0.02326420815608863</v>
       </c>
       <c r="N89">
-        <v>1388962.436699685</v>
+        <v>1161792.579852531</v>
       </c>
       <c r="O89">
         <v>0</v>
       </c>
       <c r="P89">
-        <v>0.005337427640788175</v>
+        <v>0.0139514748219669</v>
       </c>
       <c r="Q89">
-        <v>976419.9129633773</v>
+        <v>816850.1688146832</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89">
-        <v>0.02997075220051693</v>
+        <v>0.06268208398217481</v>
       </c>
       <c r="T89">
-        <v>6437800.915816851</v>
+        <v>5387484.957361083</v>
       </c>
       <c r="U89">
         <v>0</v>
       </c>
       <c r="V89">
-        <v>0.00378681553169136</v>
+        <v>0.02218598712270186</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6344,7 +6344,7 @@
         <v>0.9671947255060001</v>
       </c>
       <c r="K90">
-        <v>565370862.7179025</v>
+        <v>56537086.27179025</v>
       </c>
       <c r="L90">
         <v>565370.8627179025</v>
@@ -6353,7 +6353,7 @@
         <v>0.3858467077798933</v>
       </c>
       <c r="N90">
-        <v>96962605.31734852</v>
+        <v>38785042.12693941</v>
       </c>
       <c r="O90">
         <v>193925.2106346971</v>
@@ -6362,7 +6362,7 @@
         <v>0.4657531370802908</v>
       </c>
       <c r="Q90">
-        <v>11155699.46315554</v>
+        <v>5577849.731577771</v>
       </c>
       <c r="R90">
         <v>111556.9946315554</v>
@@ -6371,13 +6371,13 @@
         <v>0.4280237167876855</v>
       </c>
       <c r="T90">
-        <v>673489167.4984065</v>
+        <v>100899978.1303074</v>
       </c>
       <c r="U90">
         <v>870853.0679841549</v>
       </c>
       <c r="V90">
-        <v>0.3962849602294761</v>
+        <v>0.4155121792815921</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6480,16 +6480,16 @@
         <v>0.615969740508</v>
       </c>
       <c r="K92">
-        <v>971224463.1848595</v>
+        <v>97122446.31848593</v>
       </c>
       <c r="L92">
         <v>971224.4631848595</v>
       </c>
       <c r="M92">
-        <v>0.6628282183373755</v>
+        <v>0.6628282183373754</v>
       </c>
       <c r="N92">
-        <v>113000000</v>
+        <v>45200000</v>
       </c>
       <c r="O92">
         <v>226000</v>
@@ -6498,7 +6498,7 @@
         <v>0.5427876480610231</v>
       </c>
       <c r="Q92">
-        <v>15365118.02282039</v>
+        <v>7682559.011410197</v>
       </c>
       <c r="R92">
         <v>153651.180228204</v>
@@ -6507,13 +6507,13 @@
         <v>0.5895313822974528</v>
       </c>
       <c r="T92">
-        <v>1099589581.20768</v>
+        <v>150005005.3298961</v>
       </c>
       <c r="U92">
         <v>1350875.643413064</v>
       </c>
       <c r="V92">
-        <v>0.6469944998744509</v>
+        <v>0.617729635057772</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6660,40 +6660,40 @@
         <v>0.0197822001712</v>
       </c>
       <c r="K95">
-        <v>676507.9832440813</v>
+        <v>564736.8360128107</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0.000369355260887276</v>
+        <v>0.003854140057555474</v>
       </c>
       <c r="N95">
-        <v>153705.8303747428</v>
+        <v>128238.4571786982</v>
       </c>
       <c r="O95">
         <v>0</v>
       </c>
       <c r="P95">
-        <v>0.0005906522206185713</v>
+        <v>0.001539961295641589</v>
       </c>
       <c r="Q95">
-        <v>130444.8673776483</v>
+        <v>109958.9457875906</v>
       </c>
       <c r="R95">
         <v>0</v>
       </c>
       <c r="S95">
-        <v>0.004003944147492441</v>
+        <v>0.008437845932566412</v>
       </c>
       <c r="T95">
-        <v>960658.6809964724</v>
+        <v>802934.2389790994</v>
       </c>
       <c r="U95">
         <v>0</v>
       </c>
       <c r="V95">
-        <v>0.0005650745124649439</v>
+        <v>0.003306531494260055</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6728,40 +6728,40 @@
         <v>1.27686207681</v>
       </c>
       <c r="K96">
-        <v>5437436.718664311</v>
+        <v>4339216.759058878</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.002968694985903378</v>
+        <v>0.02961370334469468</v>
       </c>
       <c r="N96">
-        <v>1192379.841862977</v>
+        <v>955952.7516621404</v>
       </c>
       <c r="O96">
         <v>0</v>
       </c>
       <c r="P96">
-        <v>0.004582010973169417</v>
+        <v>0.01147963154274683</v>
       </c>
       <c r="Q96">
-        <v>1095184.979774293</v>
+        <v>885399.4559288856</v>
       </c>
       <c r="R96">
         <v>0</v>
       </c>
       <c r="S96">
-        <v>0.03361619033651827</v>
+        <v>0.06794230468831199</v>
       </c>
       <c r="T96">
-        <v>7725001.540301582</v>
+        <v>6180568.966649904</v>
       </c>
       <c r="U96">
         <v>0</v>
       </c>
       <c r="V96">
-        <v>0.004543967139972045</v>
+        <v>0.02545195477858579</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -6842,40 +6842,40 @@
         <v>0.0230749061187</v>
       </c>
       <c r="K99">
-        <v>1416217.75783427</v>
+        <v>1452579.80950291</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0.0007732170090731095</v>
+        <v>0.009913371456567196</v>
       </c>
       <c r="N99">
-        <v>356248.9934297199</v>
+        <v>343023.7488125159</v>
       </c>
       <c r="O99">
         <v>0</v>
       </c>
       <c r="P99">
-        <v>0.001368973828444776</v>
+        <v>0.004119226855022582</v>
       </c>
       <c r="Q99">
-        <v>293306.296920224</v>
+        <v>300851.7417356221</v>
       </c>
       <c r="R99">
         <v>0</v>
       </c>
       <c r="S99">
-        <v>0.009002899497582232</v>
+        <v>0.02308625848608241</v>
       </c>
       <c r="T99">
-        <v>2065773.048184214</v>
+        <v>2096455.300051048</v>
       </c>
       <c r="U99">
         <v>0</v>
       </c>
       <c r="V99">
-        <v>0.001215120126593851</v>
+        <v>0.008633329031703737</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -6910,40 +6910,40 @@
         <v>2.0847515263</v>
       </c>
       <c r="K100">
-        <v>1416217.75783427</v>
+        <v>1452579.80950291</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.0007732170090731095</v>
+        <v>0.009913371456567196</v>
       </c>
       <c r="N100">
-        <v>356248.9934297199</v>
+        <v>343023.7488125159</v>
       </c>
       <c r="O100">
         <v>0</v>
       </c>
       <c r="P100">
-        <v>0.001368973828444776</v>
+        <v>0.004119226855022582</v>
       </c>
       <c r="Q100">
-        <v>293306.296920224</v>
+        <v>300851.7417356221</v>
       </c>
       <c r="R100">
         <v>0</v>
       </c>
       <c r="S100">
-        <v>0.009002899497582232</v>
+        <v>0.02308625848608241</v>
       </c>
       <c r="T100">
-        <v>2065773.048184214</v>
+        <v>2096455.300051048</v>
       </c>
       <c r="U100">
         <v>0</v>
       </c>
       <c r="V100">
-        <v>0.001215120126593851</v>
+        <v>0.008633329031703737</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -6978,40 +6978,40 @@
         <v>1.09215864053</v>
       </c>
       <c r="K101">
-        <v>10057112.36720006</v>
+        <v>8647251.265001819</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.005490914304287815</v>
+        <v>0.05901459823923145</v>
       </c>
       <c r="N101">
-        <v>3812363.627351562</v>
+        <v>3277050.166308084</v>
       </c>
       <c r="O101">
         <v>0</v>
       </c>
       <c r="P101">
-        <v>0.0146499390219012</v>
+        <v>0.03935270691036171</v>
       </c>
       <c r="Q101">
-        <v>2256012.1321572</v>
+        <v>1940780.142746369</v>
       </c>
       <c r="R101">
         <v>0</v>
       </c>
       <c r="S101">
-        <v>0.06924723643646062</v>
+        <v>0.148928345176316</v>
       </c>
       <c r="T101">
-        <v>16125488.12670882</v>
+        <v>13865081.57405627</v>
       </c>
       <c r="U101">
         <v>0</v>
       </c>
       <c r="V101">
-        <v>0.009485265184932722</v>
+        <v>0.05709723993510658</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7046,40 +7046,40 @@
         <v>0.304686710978</v>
       </c>
       <c r="K102">
-        <v>955715.593637094</v>
+        <v>791171.8198139891</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.0005217951467906127</v>
+        <v>0.005399483102046111</v>
       </c>
       <c r="N102">
-        <v>137937.260713921</v>
+        <v>114188.8594324112</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
       <c r="P102">
-        <v>0.0005300576376841723</v>
+        <v>0.001371245629338257</v>
       </c>
       <c r="Q102">
-        <v>197988.6761869221</v>
+        <v>163901.3345437268</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
       <c r="S102">
-        <v>0.006077169744006635</v>
+        <v>0.01257718686839272</v>
       </c>
       <c r="T102">
-        <v>1291641.530537937</v>
+        <v>1069262.013790127</v>
       </c>
       <c r="U102">
         <v>0</v>
       </c>
       <c r="V102">
-        <v>0.0007597638189154915</v>
+        <v>0.004403285291094699</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7123,13 +7123,13 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>6266.334200630968</v>
+        <v>5928.567069970366</v>
       </c>
       <c r="O103">
         <v>0</v>
       </c>
       <c r="P103">
-        <v>2.407992072725546e-05</v>
+        <v>7.119364991772669e-05</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -7141,13 +7141,13 @@
         <v>0</v>
       </c>
       <c r="T103">
-        <v>6266.334200630968</v>
+        <v>5928.567069970366</v>
       </c>
       <c r="U103">
         <v>0</v>
       </c>
       <c r="V103">
-        <v>3.685956118869394e-06</v>
+        <v>2.441419580962762e-05</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7247,40 +7247,40 @@
         <v>0.00328409608725</v>
       </c>
       <c r="K105">
-        <v>955715.593637094</v>
+        <v>791171.8198139891</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.0005217951467906127</v>
+        <v>0.005399483102046111</v>
       </c>
       <c r="N105">
-        <v>155187.0723188134</v>
+        <v>128513.1888281756</v>
       </c>
       <c r="O105">
         <v>0</v>
       </c>
       <c r="P105">
-        <v>0.0005963442548205638</v>
+        <v>0.001543260431612115</v>
       </c>
       <c r="Q105">
-        <v>197988.6761869221</v>
+        <v>163901.3345437268</v>
       </c>
       <c r="R105">
         <v>0</v>
       </c>
       <c r="S105">
-        <v>0.006077169744006635</v>
+        <v>0.01257718686839272</v>
       </c>
       <c r="T105">
-        <v>1308891.342142829</v>
+        <v>1083586.343185891</v>
       </c>
       <c r="U105">
         <v>0</v>
       </c>
       <c r="V105">
-        <v>0.0007699104288151032</v>
+        <v>0.0044622737411843</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7389,13 +7389,13 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>107475.897064826</v>
+        <v>89259.76632991571</v>
       </c>
       <c r="O107">
         <v>0</v>
       </c>
       <c r="P107">
-        <v>0.0004130024027686055</v>
+        <v>0.001071882713112643</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="T107">
-        <v>107475.897064826</v>
+        <v>89259.76632991571</v>
       </c>
       <c r="U107">
         <v>0</v>
       </c>
       <c r="V107">
-        <v>6.321900934954656e-05</v>
+        <v>0.0003675770869049242</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -7448,40 +7448,40 @@
         <v>1.04023028958</v>
       </c>
       <c r="K108">
-        <v>1416217.75783427</v>
+        <v>1452579.80950291</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.0007732170090731095</v>
+        <v>0.009913371456567196</v>
       </c>
       <c r="N108">
-        <v>433791.596551632</v>
+        <v>410768.4882820753</v>
       </c>
       <c r="O108">
         <v>0</v>
       </c>
       <c r="P108">
-        <v>0.001666950233209887</v>
+        <v>0.004932744726818795</v>
       </c>
       <c r="Q108">
-        <v>293306.296920224</v>
+        <v>300851.7417356221</v>
       </c>
       <c r="R108">
         <v>0</v>
       </c>
       <c r="S108">
-        <v>0.009002899497582232</v>
+        <v>0.02308625848608241</v>
       </c>
       <c r="T108">
-        <v>2143315.651306126</v>
+        <v>2164200.039520607</v>
       </c>
       <c r="U108">
         <v>0</v>
       </c>
       <c r="V108">
-        <v>0.001260731902681615</v>
+        <v>0.008912305943824644</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7516,7 +7516,7 @@
         <v>0.673985389867</v>
       </c>
       <c r="K109">
-        <v>565370862.7179025</v>
+        <v>56537086.27179025</v>
       </c>
       <c r="L109">
         <v>565370.8627179025</v>
@@ -7525,7 +7525,7 @@
         <v>0.3858467077798933</v>
       </c>
       <c r="N109">
-        <v>96962605.31734852</v>
+        <v>38785042.12693941</v>
       </c>
       <c r="O109">
         <v>193925.2106346971</v>
@@ -7534,7 +7534,7 @@
         <v>0.4657531370802908</v>
       </c>
       <c r="Q109">
-        <v>11155699.46315554</v>
+        <v>5577849.731577771</v>
       </c>
       <c r="R109">
         <v>111556.9946315554</v>
@@ -7543,13 +7543,13 @@
         <v>0.4280237167876855</v>
       </c>
       <c r="T109">
-        <v>673489167.4984065</v>
+        <v>100899978.1303074</v>
       </c>
       <c r="U109">
         <v>870853.0679841549</v>
       </c>
       <c r="V109">
-        <v>0.3962849602294761</v>
+        <v>0.4155121792815921</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>62311632.09620007</v>
+        <v>24924652.83848003</v>
       </c>
       <c r="O110">
         <v>124623.2641924002</v>
@@ -7611,13 +7611,13 @@
         <v>0</v>
       </c>
       <c r="T110">
-        <v>62311632.09620007</v>
+        <v>24924652.83848003</v>
       </c>
       <c r="U110">
         <v>124623.2641924002</v>
       </c>
       <c r="V110">
-        <v>0.03667100623988261</v>
+        <v>0.1026412196579373</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -7631,16 +7631,16 @@
         <v>0.0122523107673</v>
       </c>
       <c r="K111">
-        <v>590671523.4655981</v>
+        <v>59067152.3465598</v>
       </c>
       <c r="L111">
         <v>590671.5234655981</v>
       </c>
       <c r="M111">
-        <v>0.4031135626850518</v>
+        <v>0.4031135626850517</v>
       </c>
       <c r="N111">
-        <v>101314626.5789574</v>
+        <v>40525850.63158294</v>
       </c>
       <c r="O111">
         <v>202629.2531579147</v>
@@ -7649,7 +7649,7 @@
         <v>0.4866577688050715</v>
       </c>
       <c r="Q111">
-        <v>5689999.999999999</v>
+        <v>2845000</v>
       </c>
       <c r="R111">
         <v>56900</v>
@@ -7658,13 +7658,13 @@
         <v>0.2183148583883622</v>
       </c>
       <c r="T111">
-        <v>697676150.0445554</v>
+        <v>102438002.9781427</v>
       </c>
       <c r="U111">
         <v>850200.7766235129</v>
       </c>
       <c r="V111">
-        <v>0.4105090859462408</v>
+        <v>0.4218458581203325</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -7717,22 +7717,22 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>5463.012850951571</v>
+        <v>4517.255486775358</v>
       </c>
       <c r="R112">
         <v>0</v>
       </c>
       <c r="S112">
-        <v>0.0001676846224153666</v>
+        <v>0.0003466376069945218</v>
       </c>
       <c r="T112">
-        <v>5463.012850951571</v>
+        <v>4517.255486775358</v>
       </c>
       <c r="U112">
         <v>0</v>
       </c>
       <c r="V112">
-        <v>3.21342989389227e-06</v>
+        <v>1.860232981673927e-05</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -7767,40 +7767,40 @@
         <v>0.297128413387</v>
       </c>
       <c r="K113">
-        <v>471060.0118443486</v>
+        <v>400593.0300778608</v>
       </c>
       <c r="L113">
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.0002571861646539629</v>
+        <v>0.002733913471806158</v>
       </c>
       <c r="N113">
-        <v>161596.6482226023</v>
+        <v>137423.0232544309</v>
       </c>
       <c r="O113">
         <v>0</v>
       </c>
       <c r="P113">
-        <v>0.0006209746168020587</v>
+        <v>0.001650254858002386</v>
       </c>
       <c r="Q113">
-        <v>41407.8547259677</v>
+        <v>35213.55576066247</v>
       </c>
       <c r="R113">
         <v>0</v>
       </c>
       <c r="S113">
-        <v>0.001270994719249984</v>
+        <v>0.002702159029609745</v>
       </c>
       <c r="T113">
-        <v>674064.5147929186</v>
+        <v>573229.6090929541</v>
       </c>
       <c r="U113">
         <v>0</v>
       </c>
       <c r="V113">
-        <v>0.0003964953261770672</v>
+        <v>0.002360594011183487</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -7921,22 +7921,22 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>6447.926613333913</v>
+        <v>6930.564856571754</v>
       </c>
       <c r="R115">
         <v>0</v>
       </c>
       <c r="S115">
-        <v>0.0001979160893481259</v>
+        <v>0.0005318261107957196</v>
       </c>
       <c r="T115">
-        <v>6447.926613333913</v>
+        <v>6930.564856571754</v>
       </c>
       <c r="U115">
         <v>0</v>
       </c>
       <c r="V115">
-        <v>3.792771625880699e-06</v>
+        <v>2.854048296707763e-05</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -7947,40 +7947,40 @@
         <v>0.00118713918284</v>
       </c>
       <c r="K116">
-        <v>5437436.718664311</v>
+        <v>4339216.759058878</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.002968694985903378</v>
+        <v>0.02961370334469468</v>
       </c>
       <c r="N116">
-        <v>1192379.841862977</v>
+        <v>955952.7516621404</v>
       </c>
       <c r="O116">
         <v>0</v>
       </c>
       <c r="P116">
-        <v>0.004582010973169417</v>
+        <v>0.01147963154274683</v>
       </c>
       <c r="Q116">
-        <v>1381431.131948285</v>
+        <v>1138429.851316828</v>
       </c>
       <c r="R116">
         <v>0</v>
       </c>
       <c r="S116">
-        <v>0.04240238199572088</v>
+        <v>0.08735892856777421</v>
       </c>
       <c r="T116">
-        <v>8011247.692475573</v>
+        <v>6433599.362037847</v>
       </c>
       <c r="U116">
         <v>0</v>
       </c>
       <c r="V116">
-        <v>0.0047123416189461</v>
+        <v>0.02649394916709148</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -8083,40 +8083,40 @@
         <v>0.8399581014749999</v>
       </c>
       <c r="K118">
-        <v>32344791.53110969</v>
+        <v>26939512.90926737</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.01765939088705069</v>
+        <v>0.1838531670214707</v>
       </c>
       <c r="N118">
-        <v>7205042.065223502</v>
+        <v>5991315.769831041</v>
       </c>
       <c r="O118">
         <v>0</v>
       </c>
       <c r="P118">
-        <v>0.0276871351275285</v>
+        <v>0.07194717246675905</v>
       </c>
       <c r="Q118">
-        <v>6171037.226764737</v>
+        <v>5152208.262756716</v>
       </c>
       <c r="R118">
         <v>0</v>
       </c>
       <c r="S118">
-        <v>0.1894170992295895</v>
+        <v>0.3953615526436141</v>
       </c>
       <c r="T118">
-        <v>45720870.82309793</v>
+        <v>38083036.94185513</v>
       </c>
       <c r="U118">
         <v>0</v>
       </c>
       <c r="V118">
-        <v>0.02689373374842757</v>
+        <v>0.1568282368994741</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -8198,40 +8198,40 @@
         <v>0.296794297054</v>
       </c>
       <c r="K120">
-        <v>1333748.548813081</v>
+        <v>1131080.185236857</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.0007281910271665539</v>
+        <v>0.007719244030558947</v>
       </c>
       <c r="N120">
-        <v>420001.0063105507</v>
+        <v>360402.274754289</v>
       </c>
       <c r="O120">
         <v>0</v>
       </c>
       <c r="P120">
-        <v>0.001613956519635871</v>
+        <v>0.00432791820950715</v>
       </c>
       <c r="Q120">
-        <v>295729.1835937498</v>
+        <v>253335.4629211564</v>
       </c>
       <c r="R120">
         <v>0</v>
       </c>
       <c r="S120">
-        <v>0.009077268869957886</v>
+        <v>0.01944003364231369</v>
       </c>
       <c r="T120">
-        <v>2049478.738717382</v>
+        <v>1744817.922912302</v>
       </c>
       <c r="U120">
         <v>0</v>
       </c>
       <c r="V120">
-        <v>0.001205535558047224</v>
+        <v>0.007185265160935698</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -8266,40 +8266,40 @@
         <v>0.802898442402</v>
       </c>
       <c r="K121">
-        <v>174403.2627301386</v>
+        <v>155654.0906023969</v>
       </c>
       <c r="L121">
         <v>0</v>
       </c>
       <c r="M121">
-        <v>9.521951580879003e-05</v>
+        <v>0.001062287117568967</v>
       </c>
       <c r="N121">
-        <v>74649.11343303457</v>
+        <v>66623.98216525004</v>
       </c>
       <c r="O121">
         <v>0</v>
       </c>
       <c r="P121">
-        <v>0.0002868574634347423</v>
+        <v>0.000800059172210965</v>
       </c>
       <c r="Q121">
-        <v>39437.55451155498</v>
+        <v>35197.83166314432</v>
       </c>
       <c r="R121">
         <v>0</v>
       </c>
       <c r="S121">
-        <v>0.001210517276396969</v>
+        <v>0.002700952420076191</v>
       </c>
       <c r="T121">
-        <v>288489.9306747281</v>
+        <v>257475.9044307912</v>
       </c>
       <c r="U121">
         <v>0</v>
       </c>
       <c r="V121">
-        <v>0.0001696943047014074</v>
+        <v>0.001060301262150641</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -8334,16 +8334,16 @@
         <v>0.986965615574</v>
       </c>
       <c r="K122">
-        <v>590671523.4655981</v>
+        <v>59067152.3465598</v>
       </c>
       <c r="L122">
         <v>590671.5234655981</v>
       </c>
       <c r="M122">
-        <v>0.4031135626850518</v>
+        <v>0.4031135626850517</v>
       </c>
       <c r="N122">
-        <v>101314626.5789574</v>
+        <v>40525850.63158294</v>
       </c>
       <c r="O122">
         <v>202629.2531579147</v>
@@ -8352,7 +8352,7 @@
         <v>0.4866577688050715</v>
       </c>
       <c r="Q122">
-        <v>11114221.40129286</v>
+        <v>5557110.700646432</v>
       </c>
       <c r="R122">
         <v>111142.2140129287</v>
@@ -8361,13 +8361,13 @@
         <v>0.4264322796696232</v>
       </c>
       <c r="T122">
-        <v>703100371.4458483</v>
+        <v>105150113.6787892</v>
       </c>
       <c r="U122">
         <v>904442.9906364415</v>
       </c>
       <c r="V122">
-        <v>0.4137076746310479</v>
+        <v>0.4330144931246252</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -8402,40 +8402,40 @@
         <v>1.12038088199</v>
       </c>
       <c r="K123">
-        <v>226779.6278745832</v>
+        <v>198104.0362228918</v>
       </c>
       <c r="L123">
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0.0001238156100034003</v>
+        <v>0.00135199380114944</v>
       </c>
       <c r="N123">
-        <v>92006.49920200938</v>
+        <v>80987.23156202742</v>
       </c>
       <c r="O123">
         <v>0</v>
       </c>
       <c r="P123">
-        <v>0.000353557460588935</v>
+        <v>0.0009725413482859805</v>
       </c>
       <c r="Q123">
-        <v>51748.06191080008</v>
+        <v>45204.67745414511</v>
       </c>
       <c r="R123">
         <v>0</v>
       </c>
       <c r="S123">
-        <v>0.001588382538900319</v>
+        <v>0.003468841039329799</v>
       </c>
       <c r="T123">
-        <v>370534.1889873927</v>
+        <v>324295.9452390643</v>
       </c>
       <c r="U123">
         <v>0</v>
       </c>
       <c r="V123">
-        <v>0.0002179540250200614</v>
+        <v>0.001335470209561848</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -8470,40 +8470,40 @@
         <v>0.472329201453</v>
       </c>
       <c r="K124">
-        <v>604373.0943565465</v>
+        <v>489621.3048860009</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.0003299715413096206</v>
+        <v>0.00334150167627973</v>
       </c>
       <c r="N124">
-        <v>152405.3027676293</v>
+        <v>125821.2020848324</v>
       </c>
       <c r="O124">
         <v>0</v>
       </c>
       <c r="P124">
-        <v>0.0005856546254249179</v>
+        <v>0.001510933503447719</v>
       </c>
       <c r="Q124">
-        <v>136218.6239378713</v>
+        <v>110846.0618735267</v>
       </c>
       <c r="R124">
         <v>0</v>
       </c>
       <c r="S124">
-        <v>0.004181166902615669</v>
+        <v>0.008505919965141166</v>
       </c>
       <c r="T124">
-        <v>892997.0210620472</v>
+        <v>726288.5688443601</v>
       </c>
       <c r="U124">
         <v>0</v>
       </c>
       <c r="V124">
-        <v>0.0005252748622287593</v>
+        <v>0.00299090001425067</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -8538,40 +8538,40 @@
         <v>0.420977393694</v>
       </c>
       <c r="K125">
-        <v>32344791.53110969</v>
+        <v>26939512.90926737</v>
       </c>
       <c r="L125">
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0.01765939088705069</v>
+        <v>0.1838531670214707</v>
       </c>
       <c r="N125">
-        <v>7205042.065223502</v>
+        <v>5991315.769831041</v>
       </c>
       <c r="O125">
         <v>0</v>
       </c>
       <c r="P125">
-        <v>0.0276871351275285</v>
+        <v>0.07194717246675905</v>
       </c>
       <c r="Q125">
-        <v>6171037.226764737</v>
+        <v>5152208.262756716</v>
       </c>
       <c r="R125">
         <v>0</v>
       </c>
       <c r="S125">
-        <v>0.1894170992295895</v>
+        <v>0.3953615526436141</v>
       </c>
       <c r="T125">
-        <v>45720870.82309793</v>
+        <v>38083036.94185513</v>
       </c>
       <c r="U125">
         <v>0</v>
       </c>
       <c r="V125">
-        <v>0.02689373374842757</v>
+        <v>0.1568282368994741</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -8606,40 +8606,40 @@
         <v>0.91536197088</v>
       </c>
       <c r="K126">
-        <v>1945349.056018654</v>
+        <v>1624544.616280014</v>
       </c>
       <c r="L126">
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0.001062108542543754</v>
+        <v>0.01108697375771829</v>
       </c>
       <c r="N126">
-        <v>586554.4013878196</v>
+        <v>487603.0780534548</v>
       </c>
       <c r="O126">
         <v>0</v>
       </c>
       <c r="P126">
-        <v>0.002253978647710697</v>
+        <v>0.005855418759379429</v>
       </c>
       <c r="Q126">
-        <v>347386.3870668613</v>
+        <v>290008.6955486583</v>
       </c>
       <c r="R126">
         <v>0</v>
       </c>
       <c r="S126">
-        <v>0.010662862551641</v>
+        <v>0.02225420291743374</v>
       </c>
       <c r="T126">
-        <v>2879289.844473334</v>
+        <v>2402156.389882127</v>
       </c>
       <c r="U126">
         <v>0</v>
       </c>
       <c r="V126">
-        <v>0.00169364347327124</v>
+        <v>0.009892224508176744</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -8762,40 +8762,40 @@
         <v>0.329882021767</v>
       </c>
       <c r="K129">
-        <v>604373.0943565465</v>
+        <v>489621.3048860009</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.0003299715413096206</v>
+        <v>0.00334150167627973</v>
       </c>
       <c r="N129">
-        <v>155074.1019754955</v>
+        <v>126857.3255444789</v>
       </c>
       <c r="O129">
         <v>0</v>
       </c>
       <c r="P129">
-        <v>0.0005959101386651644</v>
+        <v>0.001523375871053081</v>
       </c>
       <c r="Q129">
-        <v>136218.6239378713</v>
+        <v>110846.0618735267</v>
       </c>
       <c r="R129">
         <v>0</v>
       </c>
       <c r="S129">
-        <v>0.004181166902615669</v>
+        <v>0.008505919965141166</v>
       </c>
       <c r="T129">
-        <v>895665.8202699134</v>
+        <v>727324.6923040065</v>
       </c>
       <c r="U129">
         <v>0</v>
       </c>
       <c r="V129">
-        <v>0.0005268446918061983</v>
+        <v>0.002995166832982449</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -8818,13 +8818,13 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>4705.263309637663</v>
+        <v>3907.06799968955</v>
       </c>
       <c r="O130">
         <v>0</v>
       </c>
       <c r="P130">
-        <v>1.808112428563577e-05</v>
+        <v>4.691832412314108e-05</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -8836,13 +8836,13 @@
         <v>0</v>
       </c>
       <c r="T130">
-        <v>4705.263309637663</v>
+        <v>3907.06799968955</v>
       </c>
       <c r="U130">
         <v>0</v>
       </c>
       <c r="V130">
-        <v>2.767709721786665e-06</v>
+        <v>1.608954104088892e-05</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -8874,40 +8874,40 @@
         <v>0.186555843562</v>
       </c>
       <c r="K131">
-        <v>245709.0208662852</v>
+        <v>217844.9637851609</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.0001341505521771208</v>
+        <v>0.00148671903038757</v>
       </c>
       <c r="N131">
-        <v>176314.2048240986</v>
+        <v>153896.2642011319</v>
       </c>
       <c r="O131">
         <v>0</v>
       </c>
       <c r="P131">
-        <v>0.0006775304251767926</v>
+        <v>0.001848075028564386</v>
       </c>
       <c r="Q131">
-        <v>55561.82122228366</v>
+        <v>49260.96278163463</v>
       </c>
       <c r="R131">
         <v>0</v>
       </c>
       <c r="S131">
-        <v>0.001705444095879417</v>
+        <v>0.003780105488136009</v>
       </c>
       <c r="T131">
-        <v>477585.0469126675</v>
+        <v>421002.1907679274</v>
       </c>
       <c r="U131">
         <v>0</v>
       </c>
       <c r="V131">
-        <v>0.0002809230196772811</v>
+        <v>0.00173371234572906</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -8939,40 +8939,40 @@
         <v>0.06600663989950001</v>
       </c>
       <c r="K132">
-        <v>32344791.53110969</v>
+        <v>26939512.90926737</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.01765939088705069</v>
+        <v>0.1838531670214707</v>
       </c>
       <c r="N132">
-        <v>7205042.065223502</v>
+        <v>5991315.769831041</v>
       </c>
       <c r="O132">
         <v>0</v>
       </c>
       <c r="P132">
-        <v>0.0276871351275285</v>
+        <v>0.07194717246675905</v>
       </c>
       <c r="Q132">
-        <v>6171037.226764737</v>
+        <v>5152208.262756716</v>
       </c>
       <c r="R132">
         <v>0</v>
       </c>
       <c r="S132">
-        <v>0.1894170992295895</v>
+        <v>0.3953615526436141</v>
       </c>
       <c r="T132">
-        <v>45720870.82309793</v>
+        <v>38083036.94185513</v>
       </c>
       <c r="U132">
         <v>0</v>
       </c>
       <c r="V132">
-        <v>0.02689373374842757</v>
+        <v>0.1568282368994741</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -9004,40 +9004,40 @@
         <v>0.8801541178929999</v>
       </c>
       <c r="K133">
-        <v>4184006.270536668</v>
+        <v>3343773.425277801</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0.002284355493038581</v>
+        <v>0.0228201354683021</v>
       </c>
       <c r="N133">
-        <v>864700.3642249518</v>
+        <v>691761.5560252733</v>
       </c>
       <c r="O133">
         <v>0</v>
       </c>
       <c r="P133">
-        <v>0.003322822491859622</v>
+        <v>0.008307071416238756</v>
       </c>
       <c r="Q133">
-        <v>819483.8911307361</v>
+        <v>657612.193854913</v>
       </c>
       <c r="R133">
         <v>0</v>
       </c>
       <c r="S133">
-        <v>0.02515367446660818</v>
+        <v>0.05046274621296855</v>
       </c>
       <c r="T133">
-        <v>5868190.525892355</v>
+        <v>4693147.175157987</v>
       </c>
       <c r="U133">
         <v>0</v>
       </c>
       <c r="V133">
-        <v>0.003451761761035085</v>
+        <v>0.01932666236974537</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -9140,40 +9140,40 @@
         <v>0.778492718163</v>
       </c>
       <c r="K135">
-        <v>661563.1166813753</v>
+        <v>554301.8120457903</v>
       </c>
       <c r="L135">
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.0003611957635496042</v>
+        <v>0.003782924508456898</v>
       </c>
       <c r="N135">
-        <v>126347.2532622915</v>
+        <v>105364.3215554592</v>
       </c>
       <c r="O135">
         <v>0</v>
       </c>
       <c r="P135">
-        <v>0.0004855202013253777</v>
+        <v>0.001265275493067104</v>
       </c>
       <c r="Q135">
-        <v>119840.9115835348</v>
+        <v>100432.5917810475</v>
       </c>
       <c r="R135">
         <v>0</v>
       </c>
       <c r="S135">
-        <v>0.003678460687731691</v>
+        <v>0.007706828489369271</v>
       </c>
       <c r="T135">
-        <v>907751.2815272016</v>
+        <v>760098.725382297</v>
       </c>
       <c r="U135">
         <v>0</v>
       </c>
       <c r="V135">
-        <v>0.0005339535497835106</v>
+        <v>0.003130132272624273</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -9208,40 +9208,40 @@
         <v>3.23205600989</v>
       </c>
       <c r="K136">
-        <v>3984698.562948868</v>
+        <v>3443028.807179374</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.002175538816582042</v>
+        <v>0.0234975202587395</v>
       </c>
       <c r="N136">
-        <v>1573317.700959438</v>
+        <v>1357444.554716164</v>
       </c>
       <c r="O136">
         <v>0</v>
       </c>
       <c r="P136">
-        <v>0.006045857802170261</v>
+        <v>0.01630097648733693</v>
       </c>
       <c r="Q136">
-        <v>703107.6479388033</v>
+        <v>609042.4488507664</v>
       </c>
       <c r="R136">
         <v>0</v>
       </c>
       <c r="S136">
-        <v>0.02158156015346703</v>
+        <v>0.04673568224019557</v>
       </c>
       <c r="T136">
-        <v>6261123.911847109</v>
+        <v>5409515.810746304</v>
       </c>
       <c r="U136">
         <v>0</v>
       </c>
       <c r="V136">
-        <v>0.003682891345237944</v>
+        <v>0.02227671150214329</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -9276,40 +9276,40 @@
         <v>0.775992146181</v>
       </c>
       <c r="K137">
-        <v>2823871.693362162</v>
+        <v>2273665.57572549</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.001541758400266595</v>
+        <v>0.01551700723961586</v>
       </c>
       <c r="N137">
-        <v>743151.4909816808</v>
+        <v>601025.0935472224</v>
       </c>
       <c r="O137">
         <v>0</v>
       </c>
       <c r="P137">
-        <v>0.002855741238534436</v>
+        <v>0.007217455684782152</v>
       </c>
       <c r="Q137">
-        <v>540018.9523718269</v>
+        <v>435873.8331506388</v>
       </c>
       <c r="R137">
         <v>0</v>
       </c>
       <c r="S137">
-        <v>0.01657562897913351</v>
+        <v>0.03344735822828623</v>
       </c>
       <c r="T137">
-        <v>4107042.13671567</v>
+        <v>3310564.502423351</v>
       </c>
       <c r="U137">
         <v>0</v>
       </c>
       <c r="V137">
-        <v>0.00241582663956181</v>
+        <v>0.01363310375823582</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -9474,40 +9474,40 @@
         <v>3.53127437733</v>
       </c>
       <c r="K140">
-        <v>4995180.838046176</v>
+        <v>4109246.282988608</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.002727235106329854</v>
+        <v>0.02804423174773757</v>
       </c>
       <c r="N140">
-        <v>1443729.825980795</v>
+        <v>1190936.874161334</v>
       </c>
       <c r="O140">
         <v>0</v>
       </c>
       <c r="P140">
-        <v>0.005547884719856042</v>
+        <v>0.01430145630343312</v>
       </c>
       <c r="Q140">
-        <v>863552.3284023467</v>
+        <v>712325.9343201281</v>
       </c>
       <c r="R140">
         <v>0</v>
       </c>
       <c r="S140">
-        <v>0.02650633452177136</v>
+        <v>0.05466127784796364</v>
       </c>
       <c r="T140">
-        <v>7302462.992429319</v>
+        <v>6012509.09147007</v>
       </c>
       <c r="U140">
         <v>0</v>
       </c>
       <c r="V140">
-        <v>0.004295423334914355</v>
+        <v>0.02475987410344846</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -9542,40 +9542,40 @@
         <v>0.116555359902</v>
       </c>
       <c r="K141">
-        <v>3467445.304408954</v>
+        <v>2854311.221429582</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0.001893132374995568</v>
+        <v>0.01947971960340178</v>
       </c>
       <c r="N141">
-        <v>1133013.874019719</v>
+        <v>937974.7506049499</v>
       </c>
       <c r="O141">
         <v>0</v>
       </c>
       <c r="P141">
-        <v>0.004353882732033072</v>
+        <v>0.01126374134560809</v>
       </c>
       <c r="Q141">
-        <v>635198.038023778</v>
+        <v>525482.4116079612</v>
       </c>
       <c r="R141">
         <v>0</v>
       </c>
       <c r="S141">
-        <v>0.01949710646323045</v>
+        <v>0.04032359166107807</v>
       </c>
       <c r="T141">
-        <v>5235657.21645245</v>
+        <v>4317768.383642493</v>
       </c>
       <c r="U141">
         <v>0</v>
       </c>
       <c r="V141">
-        <v>0.00307969574162553</v>
+        <v>0.01778082992647903</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -9678,40 +9678,40 @@
         <v>4.426434367250001</v>
       </c>
       <c r="K143">
-        <v>5123641.513056813</v>
+        <v>4123822.69942934</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0.002797371198301426</v>
+        <v>0.02814371091558587</v>
       </c>
       <c r="N143">
-        <v>1447959.164202353</v>
+        <v>1181455.04793017</v>
       </c>
       <c r="O143">
         <v>0</v>
       </c>
       <c r="P143">
-        <v>0.005564136985669379</v>
+        <v>0.01418759306981948</v>
       </c>
       <c r="Q143">
-        <v>1099372.774657011</v>
+        <v>883140.8324984696</v>
       </c>
       <c r="R143">
         <v>0</v>
       </c>
       <c r="S143">
-        <v>0.03374473274028348</v>
+        <v>0.06776898621577634</v>
       </c>
       <c r="T143">
-        <v>7670973.451916177</v>
+        <v>6188418.57985798</v>
       </c>
       <c r="U143">
         <v>0</v>
       </c>
       <c r="V143">
-        <v>0.004512186970482369</v>
+        <v>0.02548427995794701</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -10067,40 +10067,40 @@
         <v>0.542443439681</v>
       </c>
       <c r="K150">
-        <v>4647318.998484273</v>
+        <v>3821327.249539697</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.002537311847940518</v>
+        <v>0.02607928062469284</v>
       </c>
       <c r="N150">
-        <v>971377.5158479459</v>
+        <v>798469.9833975602</v>
       </c>
       <c r="O150">
         <v>0</v>
       </c>
       <c r="P150">
-        <v>0.003732755520045775</v>
+        <v>0.009588487706541722</v>
       </c>
       <c r="Q150">
-        <v>932698.5631560942</v>
+        <v>767817.4241961217</v>
       </c>
       <c r="R150">
         <v>0</v>
       </c>
       <c r="S150">
-        <v>0.02862874583261182</v>
+        <v>0.05891949111827535</v>
       </c>
       <c r="T150">
-        <v>6551395.077488313</v>
+        <v>5387614.657133378</v>
       </c>
       <c r="U150">
         <v>0</v>
       </c>
       <c r="V150">
-        <v>0.003853633400300826</v>
+        <v>0.02218652123416587</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -10135,40 +10135,40 @@
         <v>0.262660621155</v>
       </c>
       <c r="K151">
-        <v>1042791.611559069</v>
+        <v>859825.5688851336</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
       <c r="M151">
-        <v>0.0005693363231154928</v>
+        <v>0.005868021981614537</v>
       </c>
       <c r="N151">
-        <v>294233.2760423532</v>
+        <v>245975.8290279197</v>
       </c>
       <c r="O151">
         <v>0</v>
       </c>
       <c r="P151">
-        <v>0.001130663277057123</v>
+        <v>0.002953819507033737</v>
       </c>
       <c r="Q151">
-        <v>129719.0330660538</v>
+        <v>106081.664824806</v>
       </c>
       <c r="R151">
         <v>0</v>
       </c>
       <c r="S151">
-        <v>0.003981665003035614</v>
+        <v>0.008140317621732588</v>
       </c>
       <c r="T151">
-        <v>1466743.920667476</v>
+        <v>1211883.062737859</v>
       </c>
       <c r="U151">
         <v>0</v>
       </c>
       <c r="V151">
-        <v>0.000862761792796559</v>
+        <v>0.004990607349610573</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -10200,40 +10200,40 @@
         <v>0.00522341244724</v>
       </c>
       <c r="K152">
-        <v>11148342.70847323</v>
+        <v>9275447.907240987</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.006086696877992703</v>
+        <v>0.06330183025329632</v>
       </c>
       <c r="N152">
-        <v>2645129.302860525</v>
+        <v>2201411.176958388</v>
       </c>
       <c r="O152">
         <v>0</v>
       </c>
       <c r="P152">
-        <v>0.01016455584507581</v>
+        <v>0.02643581405213478</v>
       </c>
       <c r="Q152">
-        <v>1328653.998783762</v>
+        <v>1103799.482619437</v>
       </c>
       <c r="R152">
         <v>0</v>
       </c>
       <c r="S152">
-        <v>0.04078241259635967</v>
+        <v>0.08470152117300876</v>
       </c>
       <c r="T152">
-        <v>15122126.01011751</v>
+        <v>12580658.56681881</v>
       </c>
       <c r="U152">
         <v>0</v>
       </c>
       <c r="V152">
-        <v>0.00889507184147538</v>
+        <v>0.05180790873061995</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -10315,40 +10315,40 @@
         <v>0.380904411432</v>
       </c>
       <c r="K154">
-        <v>781390.7091919342</v>
+        <v>627224.2386815513</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.0004266184234286425</v>
+        <v>0.004280595684956285</v>
       </c>
       <c r="N154">
-        <v>231417.4766300865</v>
+        <v>190080.694891873</v>
       </c>
       <c r="O154">
         <v>0</v>
       </c>
       <c r="P154">
-        <v>0.0008892782149399038</v>
+        <v>0.002282598524826652</v>
       </c>
       <c r="Q154">
-        <v>107397.8053736994</v>
+        <v>86219.65514541075</v>
       </c>
       <c r="R154">
         <v>0</v>
       </c>
       <c r="S154">
-        <v>0.003296525366802118</v>
+        <v>0.006616179895734191</v>
       </c>
       <c r="T154">
-        <v>1120205.99119572</v>
+        <v>903524.588718835</v>
       </c>
       <c r="U154">
         <v>0</v>
       </c>
       <c r="V154">
-        <v>0.0006589227442140351</v>
+        <v>0.003720768605204489</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -10362,40 +10362,40 @@
         <v>0.00492174602803</v>
       </c>
       <c r="K155">
-        <v>781390.7091919342</v>
+        <v>627224.2386815513</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
       <c r="M155">
-        <v>0.0004266184234286425</v>
+        <v>0.004280595684956285</v>
       </c>
       <c r="N155">
-        <v>231417.4766300865</v>
+        <v>190080.694891873</v>
       </c>
       <c r="O155">
         <v>0</v>
       </c>
       <c r="P155">
-        <v>0.0008892782149399038</v>
+        <v>0.002282598524826652</v>
       </c>
       <c r="Q155">
-        <v>107397.8053736994</v>
+        <v>86219.65514541075</v>
       </c>
       <c r="R155">
         <v>0</v>
       </c>
       <c r="S155">
-        <v>0.003296525366802118</v>
+        <v>0.006616179895734191</v>
       </c>
       <c r="T155">
-        <v>1120205.99119572</v>
+        <v>903524.588718835</v>
       </c>
       <c r="U155">
         <v>0</v>
       </c>
       <c r="V155">
-        <v>0.0006589227442140351</v>
+        <v>0.003720768605204489</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -10477,40 +10477,40 @@
         <v>0.7840074921520001</v>
       </c>
       <c r="K157">
-        <v>3882174.543446728</v>
+        <v>3218564.36409006</v>
       </c>
       <c r="L157">
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0.002119563444659842</v>
+        <v>0.02196562549565771</v>
       </c>
       <c r="N157">
-        <v>788050.2205494867</v>
+        <v>653035.5651395146</v>
       </c>
       <c r="O157">
         <v>0</v>
       </c>
       <c r="P157">
-        <v>0.003028275580644434</v>
+        <v>0.00784202740049288</v>
       </c>
       <c r="Q157">
-        <v>785899.7948960243</v>
+        <v>652208.5493969379</v>
       </c>
       <c r="R157">
         <v>0</v>
       </c>
       <c r="S157">
-        <v>0.02412282635222052</v>
+        <v>0.05004809036951552</v>
       </c>
       <c r="T157">
-        <v>5456124.558892239</v>
+        <v>4523808.478626512</v>
       </c>
       <c r="U157">
         <v>0</v>
       </c>
       <c r="V157">
-        <v>0.003209378092400084</v>
+        <v>0.01862931543135825</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -10610,40 +10610,40 @@
         <v>1.51954009869</v>
       </c>
       <c r="K159">
-        <v>13505151.48884199</v>
+        <v>11478666.00675695</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.007373451422647431</v>
+        <v>0.07833805702544742</v>
       </c>
       <c r="N159">
-        <v>2775132.515389558</v>
+        <v>2360879.020511368</v>
       </c>
       <c r="O159">
         <v>0</v>
       </c>
       <c r="P159">
-        <v>0.01066412496344049</v>
+        <v>0.02835079581637118</v>
       </c>
       <c r="Q159">
-        <v>2583065.052894029</v>
+        <v>2185814.931474828</v>
       </c>
       <c r="R159">
         <v>0</v>
       </c>
       <c r="S159">
-        <v>0.07928597275648328</v>
+        <v>0.1677314155459032</v>
       </c>
       <c r="T159">
-        <v>18863349.05712557</v>
+        <v>16025359.95874315</v>
       </c>
       <c r="U159">
         <v>0</v>
       </c>
       <c r="V159">
-        <v>0.01109571795141092</v>
+        <v>0.06599339626843033</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="N160">
-        <v>34969701.766789</v>
+        <v>13987880.7067156</v>
       </c>
       <c r="O160">
         <v>69939.40353357802</v>
@@ -10705,13 +10705,13 @@
         <v>0</v>
       </c>
       <c r="T160">
-        <v>34969701.766789</v>
+        <v>13987880.7067156</v>
       </c>
       <c r="U160">
         <v>69939.40353357802</v>
       </c>
       <c r="V160">
-        <v>0.02058001224742364</v>
+        <v>0.05760293415001783</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -10746,40 +10746,40 @@
         <v>2.4136449223</v>
       </c>
       <c r="K161">
-        <v>5554052.605260221</v>
+        <v>4757816.211146983</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.003032364140272681</v>
+        <v>0.03247050462536578</v>
       </c>
       <c r="N161">
-        <v>2198821.195664958</v>
+        <v>1882549.534065565</v>
       </c>
       <c r="O161">
         <v>0</v>
       </c>
       <c r="P161">
-        <v>0.008449507860543073</v>
+        <v>0.02260673968924387</v>
       </c>
       <c r="Q161">
-        <v>945607.1841189294</v>
+        <v>810574.1129280974</v>
       </c>
       <c r="R161">
         <v>0</v>
       </c>
       <c r="S161">
-        <v>0.02902496991099361</v>
+        <v>0.06220048248758168</v>
       </c>
       <c r="T161">
-        <v>8698480.985044109</v>
+        <v>7450939.858140645</v>
       </c>
       <c r="U161">
         <v>0</v>
       </c>
       <c r="V161">
-        <v>0.00511658302687782</v>
+        <v>0.03068341852516379</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -10854,7 +10854,7 @@
         <v>0.0150406698458</v>
       </c>
       <c r="K164">
-        <v>618605003.3560449</v>
+        <v>61860500.33560449</v>
       </c>
       <c r="L164">
         <v>618605.0033560449</v>
@@ -10863,7 +10863,7 @@
         <v>0.4221772286135568</v>
       </c>
       <c r="N164">
-        <v>54670000.00000001</v>
+        <v>21868000</v>
       </c>
       <c r="O164">
         <v>109340</v>
@@ -10872,7 +10872,7 @@
         <v>0.2626035461902313</v>
       </c>
       <c r="Q164">
-        <v>12070708.85303867</v>
+        <v>6035354.426519334</v>
       </c>
       <c r="R164">
         <v>120707.0885303867</v>
@@ -10881,13 +10881,13 @@
         <v>0.4631309479610346</v>
       </c>
       <c r="T164">
-        <v>685345712.2090836</v>
+        <v>89763854.76212382</v>
       </c>
       <c r="U164">
         <v>848652.0918864316</v>
       </c>
       <c r="V164">
-        <v>0.4032559011608817</v>
+        <v>0.369652953390712</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -10901,7 +10901,7 @@
         <v>0.0453876551641</v>
       </c>
       <c r="K165">
-        <v>618605003.3560449</v>
+        <v>61860500.33560449</v>
       </c>
       <c r="L165">
         <v>618605.0033560449</v>
@@ -10910,7 +10910,7 @@
         <v>0.4221772286135568</v>
       </c>
       <c r="N165">
-        <v>54670000.00000001</v>
+        <v>21868000</v>
       </c>
       <c r="O165">
         <v>109340</v>
@@ -10919,7 +10919,7 @@
         <v>0.2626035461902313</v>
       </c>
       <c r="Q165">
-        <v>5467000</v>
+        <v>2733500</v>
       </c>
       <c r="R165">
         <v>54670.00000000001</v>
@@ -10928,13 +10928,13 @@
         <v>0.2097587576114545</v>
       </c>
       <c r="T165">
-        <v>678742003.3560449</v>
+        <v>86462000.33560449</v>
       </c>
       <c r="U165">
         <v>782615.0033560449</v>
       </c>
       <c r="V165">
-        <v>0.3993617849638445</v>
+        <v>0.3560557182489779</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -10948,40 +10948,40 @@
         <v>2.16162803403</v>
       </c>
       <c r="K166">
-        <v>13980917.93979619</v>
+        <v>11876155.88538406</v>
       </c>
       <c r="L166">
         <v>0</v>
       </c>
       <c r="M166">
-        <v>0.007633207177148557</v>
+        <v>0.08105079252629731</v>
       </c>
       <c r="N166">
-        <v>2806226.555530941</v>
+        <v>2385334.078522564</v>
       </c>
       <c r="O166">
         <v>0</v>
       </c>
       <c r="P166">
-        <v>0.0107836114124108</v>
+        <v>0.02864446624604139</v>
       </c>
       <c r="Q166">
-        <v>2733490.075773693</v>
+        <v>2313225.503915151</v>
       </c>
       <c r="R166">
         <v>0</v>
       </c>
       <c r="S166">
-        <v>0.08390319842510049</v>
+        <v>0.1775084352574987</v>
       </c>
       <c r="T166">
-        <v>19520634.57110082</v>
+        <v>16574715.46782178</v>
       </c>
       <c r="U166">
         <v>0</v>
       </c>
       <c r="V166">
-        <v>0.01148234360598219</v>
+        <v>0.06825567529967864</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -11104,40 +11104,40 @@
         <v>0.27659673612</v>
       </c>
       <c r="K169">
-        <v>5557288.517327596</v>
+        <v>4490690.077339474</v>
       </c>
       <c r="L169">
         <v>0</v>
       </c>
       <c r="M169">
-        <v>0.003034130861694241</v>
+        <v>0.03064745808921935</v>
       </c>
       <c r="N169">
-        <v>1469941.231065679</v>
+        <v>1221089.411672546</v>
       </c>
       <c r="O169">
         <v>0</v>
       </c>
       <c r="P169">
-        <v>0.005648608450251786</v>
+        <v>0.01466354535030884</v>
       </c>
       <c r="Q169">
-        <v>1167919.767121345</v>
+        <v>946193.6744850518</v>
       </c>
       <c r="R169">
         <v>0</v>
       </c>
       <c r="S169">
-        <v>0.03584875058953468</v>
+        <v>0.07260742989566543</v>
       </c>
       <c r="T169">
-        <v>8195149.51551462</v>
+        <v>6657973.163497072</v>
       </c>
       <c r="U169">
         <v>0</v>
       </c>
       <c r="V169">
-        <v>0.004820515557360325</v>
+        <v>0.02741793397804571</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -11172,40 +11172,40 @@
         <v>2.84356927556</v>
       </c>
       <c r="K170">
-        <v>6431945.546039563</v>
+        <v>4997696.991913777</v>
       </c>
       <c r="L170">
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.003511670200517149</v>
+        <v>0.03410761073786666</v>
       </c>
       <c r="N170">
-        <v>1461882.996224774</v>
+        <v>1157874.372516173</v>
       </c>
       <c r="O170">
         <v>0</v>
       </c>
       <c r="P170">
-        <v>0.005617642713353958</v>
+        <v>0.01390442273026962</v>
       </c>
       <c r="Q170">
-        <v>1480939.323900763</v>
+        <v>1164666.253736402</v>
       </c>
       <c r="R170">
         <v>0</v>
       </c>
       <c r="S170">
-        <v>0.04545673937140976</v>
+        <v>0.08937221379759824</v>
       </c>
       <c r="T170">
-        <v>9374767.8661651</v>
+        <v>7320237.618166354</v>
       </c>
       <c r="U170">
         <v>0</v>
       </c>
       <c r="V170">
-        <v>0.005514385583806241</v>
+        <v>0.03014517883894139</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -11240,40 +11240,40 @@
         <v>1.05848355472</v>
       </c>
       <c r="K171">
-        <v>288739.2502408329</v>
+        <v>290006.5564946297</v>
       </c>
       <c r="L171">
         <v>0</v>
       </c>
       <c r="M171">
-        <v>0.0001576439062695013</v>
+        <v>0.001979197769763193</v>
       </c>
       <c r="N171">
-        <v>674442.3702037239</v>
+        <v>584915.3504238958</v>
       </c>
       <c r="O171">
         <v>0</v>
       </c>
       <c r="P171">
-        <v>0.002591709648676681</v>
+        <v>0.007024000605561406</v>
       </c>
       <c r="Q171">
-        <v>55452.46351901209</v>
+        <v>55695.85008231262</v>
       </c>
       <c r="R171">
         <v>0</v>
       </c>
       <c r="S171">
-        <v>0.001702087412364</v>
+        <v>0.004273895122509501</v>
       </c>
       <c r="T171">
-        <v>1018634.083963569</v>
+        <v>930617.7570008381</v>
       </c>
       <c r="U171">
         <v>0</v>
       </c>
       <c r="V171">
-        <v>0.0005991765543395971</v>
+        <v>0.003832339901899513</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -11337,13 +11337,13 @@
         <v>0</v>
       </c>
       <c r="N173">
-        <v>64617941.08270036</v>
+        <v>25847176.43308015</v>
       </c>
       <c r="O173">
         <v>129235.8821654007</v>
       </c>
       <c r="P173">
-        <v>0.3103877899365016</v>
+        <v>0.3103877899365017</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -11355,13 +11355,13 @@
         <v>0</v>
       </c>
       <c r="T173">
-        <v>64617941.08270036</v>
+        <v>25847176.43308015</v>
       </c>
       <c r="U173">
         <v>129235.8821654007</v>
       </c>
       <c r="V173">
-        <v>0.03802829168386646</v>
+        <v>0.1064402273121902</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -11464,40 +11464,40 @@
         <v>2.00715655047</v>
       </c>
       <c r="K175">
-        <v>288739.2502408329</v>
+        <v>290006.5564946297</v>
       </c>
       <c r="L175">
         <v>0</v>
       </c>
       <c r="M175">
-        <v>0.0001576439062695013</v>
+        <v>0.001979197769763193</v>
       </c>
       <c r="N175">
-        <v>208094.5731676693</v>
+        <v>196999.73285925</v>
       </c>
       <c r="O175">
         <v>0</v>
       </c>
       <c r="P175">
-        <v>0.0007996542580102066</v>
+        <v>0.002365686320073499</v>
       </c>
       <c r="Q175">
-        <v>55452.46351901209</v>
+        <v>55695.85008231262</v>
       </c>
       <c r="R175">
         <v>0</v>
       </c>
       <c r="S175">
-        <v>0.001702087412364</v>
+        <v>0.004273895122509501</v>
       </c>
       <c r="T175">
-        <v>552286.2869275142</v>
+        <v>542702.1394361923</v>
       </c>
       <c r="U175">
         <v>0</v>
       </c>
       <c r="V175">
-        <v>0.0003248634613939279</v>
+        <v>0.002234880054846923</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -11532,40 +11532,40 @@
         <v>0.360681448771</v>
       </c>
       <c r="K176">
-        <v>5554052.605260221</v>
+        <v>4757816.211146983</v>
       </c>
       <c r="L176">
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0.003032364140272681</v>
+        <v>0.03247050462536578</v>
       </c>
       <c r="N176">
-        <v>4246982.220184222</v>
+        <v>3604675.270961383</v>
       </c>
       <c r="O176">
         <v>0</v>
       </c>
       <c r="P176">
-        <v>0.01632006719044797</v>
+        <v>0.04328701797231992</v>
       </c>
       <c r="Q176">
-        <v>945607.1841189294</v>
+        <v>810574.1129280974</v>
       </c>
       <c r="R176">
         <v>0</v>
       </c>
       <c r="S176">
-        <v>0.02902496991099361</v>
+        <v>0.06220048248758168</v>
       </c>
       <c r="T176">
-        <v>10746642.00956337</v>
+        <v>9173065.595036464</v>
       </c>
       <c r="U176">
         <v>0</v>
       </c>
       <c r="V176">
-        <v>0.006321343484753882</v>
+        <v>0.037775235899102</v>
       </c>
     </row>
     <row r="177" spans="1:22">
@@ -11600,40 +11600,40 @@
         <v>0.810268104271</v>
       </c>
       <c r="K177">
-        <v>16561175.24656209</v>
+        <v>13959029.02973916</v>
       </c>
       <c r="L177">
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.009041958639513742</v>
+        <v>0.09526570522287839</v>
       </c>
       <c r="N177">
-        <v>5267098.790350681</v>
+        <v>4452156.654808705</v>
       </c>
       <c r="O177">
         <v>0</v>
       </c>
       <c r="P177">
-        <v>0.02024011443907615</v>
+        <v>0.05346406281997454</v>
       </c>
       <c r="Q177">
-        <v>3072637.891628782</v>
+        <v>2589187.669086069</v>
       </c>
       <c r="R177">
         <v>0</v>
       </c>
       <c r="S177">
-        <v>0.09431318188958221</v>
+        <v>0.1986847589867904</v>
       </c>
       <c r="T177">
-        <v>24900911.92854156</v>
+        <v>21000373.35363394</v>
       </c>
       <c r="U177">
         <v>0</v>
       </c>
       <c r="V177">
-        <v>0.01464710718416419</v>
+        <v>0.08648080068586758</v>
       </c>
     </row>
     <row r="178" spans="1:22">
@@ -11647,7 +11647,7 @@
         <v>0.057261428184</v>
       </c>
       <c r="K178">
-        <v>718041305.8714151</v>
+        <v>71804130.58714151</v>
       </c>
       <c r="L178">
         <v>718041.3058714152</v>
@@ -11656,7 +11656,7 @@
         <v>0.4900391799262208</v>
       </c>
       <c r="N178">
-        <v>65220000</v>
+        <v>26088000</v>
       </c>
       <c r="O178">
         <v>130440</v>
@@ -11665,7 +11665,7 @@
         <v>0.3132797381109728</v>
       </c>
       <c r="Q178">
-        <v>13210930.32006529</v>
+        <v>6605465.160032645</v>
       </c>
       <c r="R178">
         <v>132109.3032006529</v>
@@ -11674,13 +11674,13 @@
         <v>0.5068791532519463</v>
       </c>
       <c r="T178">
-        <v>796472236.1914804</v>
+        <v>104497595.7471742</v>
       </c>
       <c r="U178">
         <v>980590.609072068</v>
       </c>
       <c r="V178">
-        <v>0.4686416686318425</v>
+        <v>0.4303273850319404</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -11715,7 +11715,7 @@
         <v>0.749732979993</v>
       </c>
       <c r="K179">
-        <v>485432168.4414825</v>
+        <v>48543216.84414825</v>
       </c>
       <c r="L179">
         <v>485432.1684414825</v>
@@ -11724,31 +11724,31 @@
         <v>0.3312912220894855</v>
       </c>
       <c r="N179">
-        <v>94950160.13800962</v>
+        <v>37980064.05520385</v>
       </c>
       <c r="O179">
         <v>189900.3202760192</v>
       </c>
       <c r="P179">
-        <v>0.4560864964984756</v>
+        <v>0.4560864964984757</v>
       </c>
       <c r="Q179">
-        <v>10733609.26769988</v>
+        <v>5366804.633849939</v>
       </c>
       <c r="R179">
         <v>107336.0926769988</v>
       </c>
       <c r="S179">
-        <v>0.4118288905578052</v>
+        <v>0.4118288905578051</v>
       </c>
       <c r="T179">
-        <v>591115937.847192</v>
+        <v>91890085.53320204</v>
       </c>
       <c r="U179">
         <v>782668.5813945006</v>
       </c>
       <c r="V179">
-        <v>0.3478187659319662</v>
+        <v>0.3784088996031614</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -11759,40 +11759,40 @@
         <v>0.0046917223285</v>
       </c>
       <c r="K180">
-        <v>8753513.364642622</v>
+        <v>7103548.010674605</v>
       </c>
       <c r="L180">
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0.004779184122815182</v>
+        <v>0.04847933974345609</v>
       </c>
       <c r="N180">
-        <v>2354236.381849495</v>
+        <v>1964038.729056375</v>
       </c>
       <c r="O180">
         <v>0</v>
       </c>
       <c r="P180">
-        <v>0.00904672869864623</v>
+        <v>0.02358530890365643</v>
       </c>
       <c r="Q180">
-        <v>1953314.163284386</v>
+        <v>1600351.656975187</v>
       </c>
       <c r="R180">
         <v>0</v>
       </c>
       <c r="S180">
-        <v>0.05995606396420569</v>
+        <v>0.1228051126060171</v>
       </c>
       <c r="T180">
-        <v>13061063.9097765</v>
+        <v>10667938.39670617</v>
       </c>
       <c r="U180">
         <v>0</v>
       </c>
       <c r="V180">
-        <v>0.007682722768335171</v>
+        <v>0.04393121201604812</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -11827,40 +11827,40 @@
         <v>1.73478238215</v>
       </c>
       <c r="K181">
-        <v>1306044.598732157</v>
+        <v>1104784.11493437</v>
       </c>
       <c r="L181">
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.0007130654115593602</v>
+        <v>0.007539782144161277</v>
       </c>
       <c r="N181">
-        <v>651844.415020504</v>
+        <v>556852.7873554522</v>
       </c>
       <c r="O181">
         <v>0</v>
       </c>
       <c r="P181">
-        <v>0.00250487148269517</v>
+        <v>0.006687009176214401</v>
       </c>
       <c r="Q181">
-        <v>309092.0811513713</v>
+        <v>262569.8382757509</v>
       </c>
       <c r="R181">
         <v>0</v>
       </c>
       <c r="S181">
-        <v>0.0094874367557857</v>
+        <v>0.02014864571536933</v>
       </c>
       <c r="T181">
-        <v>2266981.094904033</v>
+        <v>1924206.740565573</v>
       </c>
       <c r="U181">
         <v>0</v>
       </c>
       <c r="V181">
-        <v>0.001333473857376036</v>
+        <v>0.007923999102637806</v>
       </c>
     </row>
     <row r="182" spans="1:22">
@@ -11895,40 +11895,40 @@
         <v>0.6997433183409999</v>
       </c>
       <c r="K182">
-        <v>3765678.183137911</v>
+        <v>2905390.661702957</v>
       </c>
       <c r="L182">
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.002055959548445721</v>
+        <v>0.01982831970228157</v>
       </c>
       <c r="N182">
-        <v>635018.1643302254</v>
+        <v>498684.9697184849</v>
       </c>
       <c r="O182">
         <v>0</v>
       </c>
       <c r="P182">
-        <v>0.002440212501896151</v>
+        <v>0.005988496500815906</v>
       </c>
       <c r="Q182">
-        <v>749615.6118542182</v>
+        <v>583866.8939552205</v>
       </c>
       <c r="R182">
         <v>0</v>
       </c>
       <c r="S182">
-        <v>0.02300910033710497</v>
+        <v>0.0448038025558829</v>
       </c>
       <c r="T182">
-        <v>5150311.959322355</v>
+        <v>3987942.525376663</v>
       </c>
       <c r="U182">
         <v>0</v>
       </c>
       <c r="V182">
-        <v>0.00302949432199753</v>
+        <v>0.01642258720243733</v>
       </c>
     </row>
     <row r="183" spans="1:22">
@@ -11983,7 +11983,7 @@
         <v>0.984350812341</v>
       </c>
       <c r="K184">
-        <v>485432168.4414825</v>
+        <v>48543216.84414825</v>
       </c>
       <c r="L184">
         <v>485432.1684414825</v>
@@ -11992,31 +11992,31 @@
         <v>0.3312912220894855</v>
       </c>
       <c r="N184">
-        <v>142631934.9704418</v>
+        <v>57052773.9881767</v>
       </c>
       <c r="O184">
         <v>285263.8699408835</v>
       </c>
       <c r="P184">
-        <v>0.6851225886814059</v>
+        <v>0.685122588681406</v>
       </c>
       <c r="Q184">
-        <v>16849442.45966234</v>
+        <v>8424721.22983117</v>
       </c>
       <c r="R184">
         <v>168494.4245966234</v>
       </c>
       <c r="S184">
-        <v>0.6464821870833114</v>
+        <v>0.6464821870833113</v>
       </c>
       <c r="T184">
-        <v>644913545.8715867</v>
+        <v>114020712.0621561</v>
       </c>
       <c r="U184">
         <v>939190.4629789895</v>
       </c>
       <c r="V184">
-        <v>0.3794863804129915</v>
+        <v>0.469544150852048</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -12030,40 +12030,40 @@
         <v>0.00925295158734</v>
       </c>
       <c r="K185">
-        <v>6137724.85556879</v>
+        <v>5287723.398424935</v>
       </c>
       <c r="L185">
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.003351033574521772</v>
+        <v>0.0360869439773548</v>
       </c>
       <c r="N185">
-        <v>2324342.181534901</v>
+        <v>2004828.400030132</v>
       </c>
       <c r="O185">
         <v>0</v>
       </c>
       <c r="P185">
-        <v>0.008931852927464469</v>
+        <v>0.02407513477916591</v>
       </c>
       <c r="Q185">
-        <v>1341999.296376014</v>
+        <v>1154715.351796755</v>
       </c>
       <c r="R185">
         <v>0</v>
       </c>
       <c r="S185">
-        <v>0.0411920402594884</v>
+        <v>0.08860861810417449</v>
       </c>
       <c r="T185">
-        <v>9804066.333479704</v>
+        <v>8447267.150251823</v>
       </c>
       <c r="U185">
         <v>0</v>
       </c>
       <c r="V185">
-        <v>0.005766905679568161</v>
+        <v>0.03478635424521122</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -12098,40 +12098,40 @@
         <v>0.41178274998</v>
       </c>
       <c r="K186">
-        <v>4370507.040269673</v>
+        <v>3772106.323766011</v>
       </c>
       <c r="L186">
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.002386179924038028</v>
+        <v>0.0257433642657854</v>
       </c>
       <c r="N186">
-        <v>1442542.596528699</v>
+        <v>1251505.181404762</v>
       </c>
       <c r="O186">
         <v>0</v>
       </c>
       <c r="P186">
-        <v>0.005543322500514364</v>
+        <v>0.01502879544139104</v>
       </c>
       <c r="Q186">
-        <v>654203.8472083944</v>
+        <v>565683.2555008188</v>
       </c>
       <c r="R186">
         <v>0</v>
       </c>
       <c r="S186">
-        <v>0.02008048088019998</v>
+        <v>0.04340845687779578</v>
       </c>
       <c r="T186">
-        <v>6467253.484006767</v>
+        <v>5589294.760671591</v>
       </c>
       <c r="U186">
         <v>0</v>
       </c>
       <c r="V186">
-        <v>0.003804139994520857</v>
+        <v>0.02301705203200882</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -12166,40 +12166,40 @@
         <v>3.32262785742</v>
       </c>
       <c r="K187">
-        <v>3765678.183137911</v>
+        <v>2905390.661702957</v>
       </c>
       <c r="L187">
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0.002055959548445721</v>
+        <v>0.01982831970228157</v>
       </c>
       <c r="N187">
-        <v>635018.1643302254</v>
+        <v>498684.9697184849</v>
       </c>
       <c r="O187">
         <v>0</v>
       </c>
       <c r="P187">
-        <v>0.002440212501896151</v>
+        <v>0.005988496500815906</v>
       </c>
       <c r="Q187">
-        <v>749615.6118542182</v>
+        <v>583866.8939552205</v>
       </c>
       <c r="R187">
         <v>0</v>
       </c>
       <c r="S187">
-        <v>0.02300910033710497</v>
+        <v>0.0448038025558829</v>
       </c>
       <c r="T187">
-        <v>5150311.959322355</v>
+        <v>3987942.525376663</v>
       </c>
       <c r="U187">
         <v>0</v>
       </c>
       <c r="V187">
-        <v>0.00302949432199753</v>
+        <v>0.01642258720243733</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -12281,40 +12281,40 @@
         <v>1.76050687394</v>
       </c>
       <c r="K189">
-        <v>1767727.293954978</v>
+        <v>1542454.071572982</v>
       </c>
       <c r="L189">
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0.0009651318122002538</v>
+        <v>0.01052673324120496</v>
       </c>
       <c r="N189">
-        <v>514792.4155849227</v>
+        <v>457794.5104045004</v>
       </c>
       <c r="O189">
         <v>0</v>
       </c>
       <c r="P189">
-        <v>0.001978215677840658</v>
+        <v>0.005497460300834211</v>
       </c>
       <c r="Q189">
-        <v>259272.4729499941</v>
+        <v>227448.2143671057</v>
       </c>
       <c r="R189">
         <v>0</v>
       </c>
       <c r="S189">
-        <v>0.007958247200854611</v>
+        <v>0.01745354119867857</v>
       </c>
       <c r="T189">
-        <v>2541792.182489894</v>
+        <v>2227696.796344589</v>
       </c>
       <c r="U189">
         <v>0</v>
       </c>
       <c r="V189">
-        <v>0.001495122051900718</v>
+        <v>0.009173789407886176</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -12349,40 +12349,40 @@
         <v>0.533045868314</v>
       </c>
       <c r="K190">
-        <v>663409105.4932709</v>
+        <v>66340910.5493271</v>
       </c>
       <c r="L190">
         <v>663409.1054932708</v>
       </c>
       <c r="M190">
-        <v>0.4527545300711816</v>
+        <v>0.4527545300711817</v>
       </c>
       <c r="N190">
-        <v>60510000</v>
+        <v>24204000</v>
       </c>
       <c r="O190">
         <v>121020</v>
       </c>
       <c r="P190">
-        <v>0.2906555803909071</v>
+        <v>0.2906555803909072</v>
       </c>
       <c r="Q190">
-        <v>6051000.000000002</v>
+        <v>3025500.000000001</v>
       </c>
       <c r="R190">
         <v>60510.00000000002</v>
       </c>
       <c r="S190">
-        <v>0.2321657659240739</v>
+        <v>0.2321657659240738</v>
       </c>
       <c r="T190">
-        <v>729970105.4932709</v>
+        <v>93570410.54932711</v>
       </c>
       <c r="U190">
         <v>844939.1054932708</v>
       </c>
       <c r="V190">
-        <v>0.4295041236039001</v>
+        <v>0.3853285790945664</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -12464,7 +12464,7 @@
         <v>0.519470000458</v>
       </c>
       <c r="K192">
-        <v>439846135.3970588</v>
+        <v>43984613.53970588</v>
       </c>
       <c r="L192">
         <v>439846.1353970589</v>
@@ -12473,16 +12473,16 @@
         <v>0.3001802789355001</v>
       </c>
       <c r="N192">
-        <v>87048788.26921007</v>
+        <v>34819515.30768403</v>
       </c>
       <c r="O192">
         <v>174097.5765384201</v>
       </c>
       <c r="P192">
-        <v>0.4181328057628895</v>
+        <v>0.4181328057628896</v>
       </c>
       <c r="Q192">
-        <v>8603272.016569337</v>
+        <v>4301636.008284668</v>
       </c>
       <c r="R192">
         <v>86032.72016569339</v>
@@ -12491,13 +12491,13 @@
         <v>0.3300917595736194</v>
       </c>
       <c r="T192">
-        <v>535498195.6828383</v>
+        <v>83105764.85567458</v>
       </c>
       <c r="U192">
         <v>699976.4321011724</v>
       </c>
       <c r="V192">
-        <v>0.3150913769369509</v>
+        <v>0.3422345386581669</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -12600,7 +12600,7 @@
         <v>2.79462365012</v>
       </c>
       <c r="K194">
-        <v>439846135.3970588</v>
+        <v>43984613.53970588</v>
       </c>
       <c r="L194">
         <v>439846.1353970589</v>
@@ -12609,16 +12609,16 @@
         <v>0.3001802789355001</v>
       </c>
       <c r="N194">
-        <v>87048788.26921007</v>
+        <v>34819515.30768403</v>
       </c>
       <c r="O194">
         <v>174097.5765384201</v>
       </c>
       <c r="P194">
-        <v>0.4181328057628895</v>
+        <v>0.4181328057628896</v>
       </c>
       <c r="Q194">
-        <v>8603272.016569337</v>
+        <v>4301636.008284668</v>
       </c>
       <c r="R194">
         <v>86032.72016569339</v>
@@ -12627,13 +12627,13 @@
         <v>0.3300917595736194</v>
       </c>
       <c r="T194">
-        <v>535498195.6828383</v>
+        <v>83105764.85567458</v>
       </c>
       <c r="U194">
         <v>699976.4321011724</v>
       </c>
       <c r="V194">
-        <v>0.3150913769369509</v>
+        <v>0.3422345386581669</v>
       </c>
     </row>
     <row r="195" spans="1:22">
@@ -12668,40 +12668,40 @@
         <v>0.383017014015</v>
       </c>
       <c r="K195">
-        <v>580116.6612474589</v>
+        <v>479580.3678724157</v>
       </c>
       <c r="L195">
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.0003167281777409613</v>
+        <v>0.003272975638855508</v>
       </c>
       <c r="N195">
-        <v>138631.4161340605</v>
+        <v>114897.7939562177</v>
       </c>
       <c r="O195">
         <v>0</v>
       </c>
       <c r="P195">
-        <v>0.0005327250995453145</v>
+        <v>0.00137975892364813</v>
       </c>
       <c r="Q195">
-        <v>59983.28056343779</v>
+        <v>49629.99965156347</v>
       </c>
       <c r="R195">
         <v>0</v>
       </c>
       <c r="S195">
-        <v>0.001841158720826196</v>
+        <v>0.003808424023109155</v>
       </c>
       <c r="T195">
-        <v>778731.3579449572</v>
+        <v>644108.1614801969</v>
       </c>
       <c r="U195">
         <v>0</v>
       </c>
       <c r="V195">
-        <v>0.0004580620059306228</v>
+        <v>0.002652476153404701</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -12736,40 +12736,40 @@
         <v>0.297735002596</v>
       </c>
       <c r="K196">
-        <v>824924.244431925</v>
+        <v>653623.4031810105</v>
       </c>
       <c r="L196">
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0.0004503865690590997</v>
+        <v>0.004460761154773547</v>
       </c>
       <c r="N196">
-        <v>202804.6230363633</v>
+        <v>169728.5121763931</v>
       </c>
       <c r="O196">
         <v>0</v>
       </c>
       <c r="P196">
-        <v>0.0007793263317083894</v>
+        <v>0.002038197786130999</v>
       </c>
       <c r="Q196">
-        <v>128684.5866138238</v>
+        <v>104309.2443131585</v>
       </c>
       <c r="R196">
         <v>0</v>
       </c>
       <c r="S196">
-        <v>0.003949913153372495</v>
+        <v>0.00800430857673964</v>
       </c>
       <c r="T196">
-        <v>1156413.454082112</v>
+        <v>927661.1596705623</v>
       </c>
       <c r="U196">
         <v>0</v>
       </c>
       <c r="V196">
-        <v>0.0006802205421133866</v>
+        <v>0.003820164456248033</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -12804,7 +12804,7 @@
         <v>1.27101600133</v>
       </c>
       <c r="K197">
-        <v>538284941.333248</v>
+        <v>53828494.1333248</v>
       </c>
       <c r="L197">
         <v>538284.941333248</v>
@@ -12813,7 +12813,7 @@
         <v>0.3673614721892</v>
       </c>
       <c r="N197">
-        <v>53350000.00000001</v>
+        <v>21340000</v>
       </c>
       <c r="O197">
         <v>106700</v>
@@ -12822,7 +12822,7 @@
         <v>0.2562630179119963</v>
       </c>
       <c r="Q197">
-        <v>5335000</v>
+        <v>2667500</v>
       </c>
       <c r="R197">
         <v>53350</v>
@@ -12831,13 +12831,13 @@
         <v>0.2046941598421639</v>
       </c>
       <c r="T197">
-        <v>596969941.333248</v>
+        <v>77835994.1333248</v>
       </c>
       <c r="U197">
         <v>698334.941333248</v>
       </c>
       <c r="V197">
-        <v>0.3512497810608741</v>
+        <v>0.3205333058359947</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -12869,40 +12869,40 @@
         <v>0.5272928934059999</v>
       </c>
       <c r="K198">
-        <v>38313.0176569918</v>
+        <v>33529.76306677728</v>
       </c>
       <c r="L198">
         <v>0</v>
       </c>
       <c r="M198">
-        <v>2.091788268959918e-05</v>
+        <v>0.0002288294205640925</v>
       </c>
       <c r="N198">
-        <v>12081.9598142026</v>
+        <v>10573.56675945909</v>
       </c>
       <c r="O198">
         <v>0</v>
       </c>
       <c r="P198">
-        <v>4.642788355057573e-05</v>
+        <v>0.0001269734830305976</v>
       </c>
       <c r="Q198">
-        <v>3176.786415238003</v>
+        <v>2780.175050952909</v>
       </c>
       <c r="R198">
         <v>0</v>
       </c>
       <c r="S198">
-        <v>9.750997207349843e-05</v>
+        <v>0.0002133404297165701</v>
       </c>
       <c r="T198">
-        <v>53571.7638864324</v>
+        <v>46883.50487718927</v>
       </c>
       <c r="U198">
         <v>0</v>
       </c>
       <c r="V198">
-        <v>3.151175225795315e-05</v>
+        <v>0.0001930690932234072</v>
       </c>
     </row>
     <row r="199" spans="1:22">
@@ -12934,40 +12934,40 @@
         <v>0.0705567724268</v>
       </c>
       <c r="K199">
-        <v>4919410.917940077</v>
+        <v>4107792.195277073</v>
       </c>
       <c r="L199">
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.002685866756951339</v>
+        <v>0.02803430808535388</v>
       </c>
       <c r="N199">
-        <v>802892.6049124114</v>
+        <v>669968.3372205599</v>
       </c>
       <c r="O199">
         <v>0</v>
       </c>
       <c r="P199">
-        <v>0.003085311070201742</v>
+        <v>0.008045365885736773</v>
       </c>
       <c r="Q199">
-        <v>984811.0084536675</v>
+        <v>822563.6955971147</v>
       </c>
       <c r="R199">
         <v>0</v>
       </c>
       <c r="S199">
-        <v>0.03022831294901408</v>
+        <v>0.06312051905788822</v>
       </c>
       <c r="T199">
-        <v>6707114.531306156</v>
+        <v>5600324.228094748</v>
       </c>
       <c r="U199">
         <v>0</v>
       </c>
       <c r="V199">
-        <v>0.00394523002685309</v>
+        <v>0.02306247204230251</v>
       </c>
     </row>
     <row r="200" spans="1:22">
@@ -12981,40 +12981,40 @@
         <v>0.348999537857</v>
       </c>
       <c r="K200">
-        <v>397487.6786514702</v>
+        <v>326006.5964447511</v>
       </c>
       <c r="L200">
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0.0002170176389401476</v>
+        <v>0.002224886003994496</v>
       </c>
       <c r="N200">
-        <v>117141.8814154021</v>
+        <v>96166.46822495956</v>
       </c>
       <c r="O200">
         <v>0</v>
       </c>
       <c r="P200">
-        <v>0.0004501463101090928</v>
+        <v>0.001154822369693825</v>
       </c>
       <c r="Q200">
-        <v>79974.79091040154</v>
+        <v>65590.0787611093</v>
       </c>
       <c r="R200">
         <v>0</v>
       </c>
       <c r="S200">
-        <v>0.002454788773601855</v>
+        <v>0.005033141917895641</v>
       </c>
       <c r="T200">
-        <v>594604.3509772738</v>
+        <v>487763.14343082</v>
       </c>
       <c r="U200">
         <v>0</v>
       </c>
       <c r="V200">
-        <v>0.0003497556107956008</v>
+        <v>0.002008637964603316</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -13049,40 +13049,40 @@
         <v>0.721413891569</v>
       </c>
       <c r="K201">
-        <v>4050627.317687247</v>
+        <v>3437315.462724617</v>
       </c>
       <c r="L201">
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.002211534152940965</v>
+        <v>0.02345852859338054</v>
       </c>
       <c r="N201">
-        <v>591951.9999594886</v>
+        <v>502444.0332414206</v>
       </c>
       <c r="O201">
         <v>0</v>
       </c>
       <c r="P201">
-        <v>0.002274720239455077</v>
+        <v>0.006033637501889496</v>
       </c>
       <c r="Q201">
-        <v>773469.7406304763</v>
+        <v>656640.5814645139</v>
       </c>
       <c r="R201">
         <v>0</v>
       </c>
       <c r="S201">
-        <v>0.0237412916546117</v>
+        <v>0.05038818824410445</v>
       </c>
       <c r="T201">
-        <v>5416049.058277212</v>
+        <v>4596400.077430551</v>
       </c>
       <c r="U201">
         <v>0</v>
       </c>
       <c r="V201">
-        <v>0.00318580505400487</v>
+        <v>0.01892825200176709</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -13114,40 +13114,40 @@
         <v>0.04419467361480001</v>
       </c>
       <c r="K202">
-        <v>494629.5899743534</v>
+        <v>407417.3124878961</v>
       </c>
       <c r="L202">
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0.0002700545237788101</v>
+        <v>0.002780486917211783</v>
       </c>
       <c r="N202">
-        <v>150859.6270063106</v>
+        <v>124282.4369793861</v>
       </c>
       <c r="O202">
         <v>0</v>
       </c>
       <c r="P202">
-        <v>0.0005797149885318128</v>
+        <v>0.001492455125294985</v>
       </c>
       <c r="Q202">
-        <v>89328.39051420204</v>
+        <v>73369.35390036316</v>
       </c>
       <c r="R202">
         <v>0</v>
       </c>
       <c r="S202">
-        <v>0.002741893135348799</v>
+        <v>0.005630094940879934</v>
       </c>
       <c r="T202">
-        <v>734817.6074948661</v>
+        <v>605069.1033676454</v>
       </c>
       <c r="U202">
         <v>0</v>
       </c>
       <c r="V202">
-        <v>0.0004322312487460286</v>
+        <v>0.002491710963817661</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -13161,40 +13161,40 @@
         <v>0.687645466714</v>
       </c>
       <c r="K203">
-        <v>494629.5899743534</v>
+        <v>407417.3124878961</v>
       </c>
       <c r="L203">
         <v>0</v>
       </c>
       <c r="M203">
-        <v>0.0002700545237788101</v>
+        <v>0.002780486917211783</v>
       </c>
       <c r="N203">
-        <v>150859.6270063106</v>
+        <v>124282.4369793861</v>
       </c>
       <c r="O203">
         <v>0</v>
       </c>
       <c r="P203">
-        <v>0.0005797149885318128</v>
+        <v>0.001492455125294985</v>
       </c>
       <c r="Q203">
-        <v>89328.39051420204</v>
+        <v>73369.35390036316</v>
       </c>
       <c r="R203">
         <v>0</v>
       </c>
       <c r="S203">
-        <v>0.002741893135348799</v>
+        <v>0.005630094940879934</v>
       </c>
       <c r="T203">
-        <v>734817.6074948661</v>
+        <v>605069.1033676454</v>
       </c>
       <c r="U203">
         <v>0</v>
       </c>
       <c r="V203">
-        <v>0.0004322312487460286</v>
+        <v>0.002491710963817661</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -13341,40 +13341,40 @@
         <v>0.988333601939</v>
       </c>
       <c r="K206">
-        <v>434043.7511637228</v>
+        <v>366317.4754719509</v>
       </c>
       <c r="L206">
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.000236976276582574</v>
+        <v>0.002499994273380485</v>
       </c>
       <c r="N206">
-        <v>131773.0649326732</v>
+        <v>111211.7761214593</v>
       </c>
       <c r="O206">
         <v>0</v>
       </c>
       <c r="P206">
-        <v>0.0005063702087971549</v>
+        <v>0.001335495097293273</v>
       </c>
       <c r="Q206">
-        <v>77773.0896770204</v>
+        <v>65637.71922474555</v>
       </c>
       <c r="R206">
         <v>0</v>
       </c>
       <c r="S206">
-        <v>0.002387208584782299</v>
+        <v>0.005036797672226856</v>
       </c>
       <c r="T206">
-        <v>643589.9057734164</v>
+        <v>543166.9708181557</v>
       </c>
       <c r="U206">
         <v>0</v>
       </c>
       <c r="V206">
-        <v>0.0003785696828919906</v>
+        <v>0.00223679425843841</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -13409,7 +13409,7 @@
         <v>0.271002314159</v>
       </c>
       <c r="K207">
-        <v>1282223143.901276</v>
+        <v>128222314.3901276</v>
       </c>
       <c r="L207">
         <v>1282223.143901277</v>
@@ -13418,16 +13418,16 @@
         <v>0.8750744181175608</v>
       </c>
       <c r="N207">
-        <v>104965481.3824378</v>
+        <v>41986192.55297512</v>
       </c>
       <c r="O207">
         <v>209930.9627648756</v>
       </c>
       <c r="P207">
-        <v>0.504194396169615</v>
+        <v>0.5041943961696153</v>
       </c>
       <c r="Q207">
-        <v>24008577.25737068</v>
+        <v>12004288.62868534</v>
       </c>
       <c r="R207">
         <v>240085.7725737068</v>
@@ -13436,13 +13436,13 @@
         <v>0.9211650516781957</v>
       </c>
       <c r="T207">
-        <v>1411197202.541085</v>
+        <v>182212795.5717881</v>
       </c>
       <c r="U207">
         <v>1732239.879239859</v>
       </c>
       <c r="V207">
-        <v>0.8303430741308565</v>
+        <v>0.7503632526386381</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -13542,40 +13542,40 @@
         <v>0.447534656495</v>
       </c>
       <c r="K209">
-        <v>494629.5899743534</v>
+        <v>407417.3124878961</v>
       </c>
       <c r="L209">
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.0002700545237788101</v>
+        <v>0.002780486917211783</v>
       </c>
       <c r="N209">
-        <v>150859.6270063106</v>
+        <v>124282.4369793861</v>
       </c>
       <c r="O209">
         <v>0</v>
       </c>
       <c r="P209">
-        <v>0.0005797149885318128</v>
+        <v>0.001492455125294985</v>
       </c>
       <c r="Q209">
-        <v>89328.39051420204</v>
+        <v>73369.35390036316</v>
       </c>
       <c r="R209">
         <v>0</v>
       </c>
       <c r="S209">
-        <v>0.002741893135348799</v>
+        <v>0.005630094940879934</v>
       </c>
       <c r="T209">
-        <v>734817.6074948661</v>
+        <v>605069.1033676454</v>
       </c>
       <c r="U209">
         <v>0</v>
       </c>
       <c r="V209">
-        <v>0.0004322312487460286</v>
+        <v>0.002491710963817661</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -13630,7 +13630,7 @@
         <v>0.218698274703</v>
       </c>
       <c r="K211">
-        <v>1282223143.901276</v>
+        <v>128222314.3901276</v>
       </c>
       <c r="L211">
         <v>1282223.143901277</v>
@@ -13639,16 +13639,16 @@
         <v>0.8750744181175608</v>
       </c>
       <c r="N211">
-        <v>104965481.3824378</v>
+        <v>41986192.55297512</v>
       </c>
       <c r="O211">
         <v>209930.9627648756</v>
       </c>
       <c r="P211">
-        <v>0.504194396169615</v>
+        <v>0.5041943961696153</v>
       </c>
       <c r="Q211">
-        <v>24008577.25737068</v>
+        <v>12004288.62868534</v>
       </c>
       <c r="R211">
         <v>240085.7725737068</v>
@@ -13657,13 +13657,13 @@
         <v>0.9211650516781957</v>
       </c>
       <c r="T211">
-        <v>1411197202.541085</v>
+        <v>182212795.5717881</v>
       </c>
       <c r="U211">
         <v>1732239.879239859</v>
       </c>
       <c r="V211">
-        <v>0.8303430741308565</v>
+        <v>0.7503632526386381</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -13698,40 +13698,40 @@
         <v>4.05451136973</v>
       </c>
       <c r="K212">
-        <v>1246581.130554195</v>
+        <v>1028774.831103197</v>
       </c>
       <c r="L212">
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.000680599948702865</v>
+        <v>0.007021044199549533</v>
       </c>
       <c r="N212">
-        <v>208372.8573608529</v>
+        <v>171965.3425546395</v>
       </c>
       <c r="O212">
         <v>0</v>
       </c>
       <c r="P212">
-        <v>0.0008007236330382471</v>
+        <v>0.002065058934363738</v>
       </c>
       <c r="Q212">
-        <v>242014.2618358147</v>
+        <v>199728.8224906921</v>
       </c>
       <c r="R212">
         <v>0</v>
       </c>
       <c r="S212">
-        <v>0.007428514488667825</v>
+        <v>0.0153264568007486</v>
       </c>
       <c r="T212">
-        <v>1696968.249750863</v>
+        <v>1400468.996148529</v>
       </c>
       <c r="U212">
         <v>0</v>
       </c>
       <c r="V212">
-        <v>0.0009981833562382385</v>
+        <v>0.00576721556722706</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -13766,40 +13766,40 @@
         <v>3.95118226927</v>
       </c>
       <c r="K213">
-        <v>454419.5037299127</v>
+        <v>397279.7298050793</v>
       </c>
       <c r="L213">
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.0002481008923909056</v>
+        <v>0.002711301305413409</v>
       </c>
       <c r="N213">
-        <v>72231.2408030635</v>
+        <v>63148.71521619894</v>
       </c>
       <c r="O213">
         <v>0</v>
       </c>
       <c r="P213">
-        <v>0.0002775661968992867</v>
+        <v>0.0007583261639441585</v>
       </c>
       <c r="Q213">
-        <v>80725.81098698697</v>
+        <v>70575.15822707194</v>
       </c>
       <c r="R213">
         <v>0</v>
       </c>
       <c r="S213">
-        <v>0.002477840983326503</v>
+        <v>0.005415678620063081</v>
       </c>
       <c r="T213">
-        <v>607376.5555199631</v>
+        <v>531003.6032483502</v>
       </c>
       <c r="U213">
         <v>0</v>
       </c>
       <c r="V213">
-        <v>0.0003572684219509389</v>
+        <v>0.002186704779134402</v>
       </c>
     </row>
     <row r="214" spans="1:22">
@@ -13878,40 +13878,40 @@
         <v>0.000224811466952</v>
       </c>
       <c r="K215">
-        <v>494629.5899743534</v>
+        <v>407417.3124878961</v>
       </c>
       <c r="L215">
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.0002700545237788101</v>
+        <v>0.002780486917211783</v>
       </c>
       <c r="N215">
-        <v>150859.6270063106</v>
+        <v>124282.4369793861</v>
       </c>
       <c r="O215">
         <v>0</v>
       </c>
       <c r="P215">
-        <v>0.0005797149885318128</v>
+        <v>0.001492455125294985</v>
       </c>
       <c r="Q215">
-        <v>89328.39051420204</v>
+        <v>73369.35390036316</v>
       </c>
       <c r="R215">
         <v>0</v>
       </c>
       <c r="S215">
-        <v>0.002741893135348799</v>
+        <v>0.005630094940879934</v>
       </c>
       <c r="T215">
-        <v>734817.6074948661</v>
+        <v>605069.1033676454</v>
       </c>
       <c r="U215">
         <v>0</v>
       </c>
       <c r="V215">
-        <v>0.0004322312487460286</v>
+        <v>0.002491710963817661</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -13946,7 +13946,7 @@
         <v>0.7097112153020001</v>
       </c>
       <c r="K216">
-        <v>638929319.1471231</v>
+        <v>63892931.91471231</v>
       </c>
       <c r="L216">
         <v>638929.319147123</v>
@@ -13955,16 +13955,16 @@
         <v>0.4360478944950055</v>
       </c>
       <c r="N216">
-        <v>64940000</v>
+        <v>25976000</v>
       </c>
       <c r="O216">
         <v>129880</v>
       </c>
       <c r="P216">
-        <v>0.3119347775671047</v>
+        <v>0.3119347775671048</v>
       </c>
       <c r="Q216">
-        <v>11917422.58162641</v>
+        <v>5958711.290813205</v>
       </c>
       <c r="R216">
         <v>119174.2258162641</v>
@@ -13973,13 +13973,13 @@
         <v>0.4572496350196906</v>
       </c>
       <c r="T216">
-        <v>715786741.7287495</v>
+        <v>95827643.20552552</v>
       </c>
       <c r="U216">
         <v>887983.5449633871</v>
       </c>
       <c r="V216">
-        <v>0.4211675763016567</v>
+        <v>0.3946239989499733</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -14002,16 +14002,16 @@
         <v>0</v>
       </c>
       <c r="N217">
-        <v>85898876.09166506</v>
+        <v>34359550.43666603</v>
       </c>
       <c r="O217">
         <v>171797.7521833301</v>
       </c>
       <c r="P217">
-        <v>0.412609282521063</v>
+        <v>0.4126092825210631</v>
       </c>
       <c r="Q217">
-        <v>5493107.164364817</v>
+        <v>2746553.582182408</v>
       </c>
       <c r="R217">
         <v>54931.07164364816</v>
@@ -14020,13 +14020,13 @@
         <v>0.2107604415993678</v>
       </c>
       <c r="T217">
-        <v>91391983.25602987</v>
+        <v>37106104.01884843</v>
       </c>
       <c r="U217">
         <v>226728.8238269783</v>
       </c>
       <c r="V217">
-        <v>0.05379154019396365</v>
+        <v>0.15280516835801</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -14040,16 +14040,16 @@
         <v>0.149193763884</v>
       </c>
       <c r="K218">
-        <v>587188460.3884449</v>
+        <v>58718846.03884449</v>
       </c>
       <c r="L218">
         <v>587188.4603884448</v>
       </c>
       <c r="M218">
-        <v>0.4007364886086684</v>
+        <v>0.4007364886086683</v>
       </c>
       <c r="N218">
-        <v>94020435.70339978</v>
+        <v>37608174.28135991</v>
       </c>
       <c r="O218">
         <v>188040.8714067996</v>
@@ -14058,7 +14058,7 @@
         <v>0.451620629779832</v>
       </c>
       <c r="Q218">
-        <v>9239431.002729425</v>
+        <v>4619715.501364713</v>
       </c>
       <c r="R218">
         <v>92394.31002729425</v>
@@ -14067,13 +14067,13 @@
         <v>0.3545000124692299</v>
       </c>
       <c r="T218">
-        <v>690448327.0945741</v>
+        <v>100946735.8215691</v>
       </c>
       <c r="U218">
         <v>867623.6418225386</v>
       </c>
       <c r="V218">
-        <v>0.4062601291563587</v>
+        <v>0.415704730266779</v>
       </c>
     </row>
     <row r="219" spans="1:22">
@@ -14087,16 +14087,16 @@
         <v>0.03907718274519999</v>
       </c>
       <c r="K219">
-        <v>587188460.3884449</v>
+        <v>58718846.03884449</v>
       </c>
       <c r="L219">
         <v>587188.4603884448</v>
       </c>
       <c r="M219">
-        <v>0.4007364886086684</v>
+        <v>0.4007364886086683</v>
       </c>
       <c r="N219">
-        <v>71250000</v>
+        <v>28500000</v>
       </c>
       <c r="O219">
         <v>142500</v>
@@ -14105,7 +14105,7 @@
         <v>0.3422444241092734</v>
       </c>
       <c r="Q219">
-        <v>7125000.000000002</v>
+        <v>3562500.000000001</v>
       </c>
       <c r="R219">
         <v>71250.00000000001</v>
@@ -14114,13 +14114,13 @@
         <v>0.2733731750469387</v>
       </c>
       <c r="T219">
-        <v>665563460.3884449</v>
+        <v>90781346.0388445</v>
       </c>
       <c r="U219">
         <v>800938.4603884448</v>
       </c>
       <c r="V219">
-        <v>0.3916126537062622</v>
+        <v>0.3738430436724385</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -14202,16 +14202,16 @@
         <v>2.48502529769</v>
       </c>
       <c r="K221">
-        <v>688435858.4449816</v>
+        <v>68843585.84449816</v>
       </c>
       <c r="L221">
         <v>688435.8584449816</v>
       </c>
       <c r="M221">
-        <v>0.4698344520650686</v>
+        <v>0.4698344520650685</v>
       </c>
       <c r="N221">
-        <v>81005327.37560773</v>
+        <v>32402130.95024309</v>
       </c>
       <c r="O221">
         <v>162010.6547512154</v>
@@ -14220,7 +14220,7 @@
         <v>0.3891034612975162</v>
       </c>
       <c r="Q221">
-        <v>12136554.94440659</v>
+        <v>6068277.472203296</v>
       </c>
       <c r="R221">
         <v>121365.5494440659</v>
@@ -14229,13 +14229,13 @@
         <v>0.465657341653902</v>
       </c>
       <c r="T221">
-        <v>781577740.7649959</v>
+        <v>107313994.2669445</v>
       </c>
       <c r="U221">
         <v>971812.062640263</v>
       </c>
       <c r="V221">
-        <v>0.4598792017523347</v>
+        <v>0.4419254835485122</v>
       </c>
     </row>
     <row r="222" spans="1:22">
@@ -14335,16 +14335,16 @@
         <v>1.12090832684</v>
       </c>
       <c r="K223">
-        <v>688435858.4449816</v>
+        <v>68843585.84449816</v>
       </c>
       <c r="L223">
         <v>688435.8584449816</v>
       </c>
       <c r="M223">
-        <v>0.4698344520650686</v>
+        <v>0.4698344520650685</v>
       </c>
       <c r="N223">
-        <v>81005327.37560773</v>
+        <v>32402130.95024309</v>
       </c>
       <c r="O223">
         <v>162010.6547512154</v>
@@ -14353,7 +14353,7 @@
         <v>0.3891034612975162</v>
       </c>
       <c r="Q223">
-        <v>12136554.94440659</v>
+        <v>6068277.472203296</v>
       </c>
       <c r="R223">
         <v>121365.5494440659</v>
@@ -14362,13 +14362,13 @@
         <v>0.465657341653902</v>
       </c>
       <c r="T223">
-        <v>781577740.7649959</v>
+        <v>107313994.2669445</v>
       </c>
       <c r="U223">
         <v>971812.062640263</v>
       </c>
       <c r="V223">
-        <v>0.4598792017523347</v>
+        <v>0.4419254835485122</v>
       </c>
     </row>
     <row r="224" spans="1:22">
@@ -14539,16 +14539,16 @@
         <v>1.71122010574</v>
       </c>
       <c r="K226">
-        <v>688435858.4449816</v>
+        <v>68843585.84449816</v>
       </c>
       <c r="L226">
         <v>688435.8584449816</v>
       </c>
       <c r="M226">
-        <v>0.4698344520650686</v>
+        <v>0.4698344520650685</v>
       </c>
       <c r="N226">
-        <v>81005327.37560773</v>
+        <v>32402130.95024309</v>
       </c>
       <c r="O226">
         <v>162010.6547512154</v>
@@ -14557,7 +14557,7 @@
         <v>0.3891034612975162</v>
       </c>
       <c r="Q226">
-        <v>12136554.94440659</v>
+        <v>6068277.472203296</v>
       </c>
       <c r="R226">
         <v>121365.5494440659</v>
@@ -14566,13 +14566,13 @@
         <v>0.465657341653902</v>
       </c>
       <c r="T226">
-        <v>781577740.7649959</v>
+        <v>107313994.2669445</v>
       </c>
       <c r="U226">
         <v>971812.062640263</v>
       </c>
       <c r="V226">
-        <v>0.4598792017523347</v>
+        <v>0.4419254835485122</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -14648,40 +14648,40 @@
         <v>0.5257953499419999</v>
       </c>
       <c r="K228">
-        <v>3417290.264388072</v>
+        <v>2879142.085919359</v>
       </c>
       <c r="L228">
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.001865749064893459</v>
+        <v>0.01964918195009314</v>
       </c>
       <c r="N228">
-        <v>1206422.117103569</v>
+        <v>1016437.124740063</v>
       </c>
       <c r="O228">
         <v>0</v>
       </c>
       <c r="P228">
-        <v>0.004635971847868648</v>
+        <v>0.01220596275087538</v>
       </c>
       <c r="Q228">
-        <v>573090.6931101253</v>
+        <v>482841.4930908779</v>
       </c>
       <c r="R228">
         <v>0</v>
       </c>
       <c r="S228">
-        <v>0.01759075058137439</v>
+        <v>0.03705148407316709</v>
       </c>
       <c r="T228">
-        <v>5196803.074601767</v>
+        <v>4378420.7037503</v>
       </c>
       <c r="U228">
         <v>0</v>
       </c>
       <c r="V228">
-        <v>0.003056841125623158</v>
+        <v>0.01803059982904465</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -14716,25 +14716,25 @@
         <v>6.464409658080001</v>
       </c>
       <c r="K229">
-        <v>940123841.4571044</v>
+        <v>94012384.14571044</v>
       </c>
       <c r="L229">
         <v>940123.8414571045</v>
       </c>
       <c r="M229">
-        <v>0.6416030840142619</v>
+        <v>0.6416030840142618</v>
       </c>
       <c r="N229">
-        <v>73786376.25496635</v>
+        <v>29514550.50198654</v>
       </c>
       <c r="O229">
         <v>147572.7525099327</v>
       </c>
       <c r="P229">
-        <v>0.3544277312068929</v>
+        <v>0.354427731206893</v>
       </c>
       <c r="Q229">
-        <v>17738164.59189914</v>
+        <v>8869082.295949569</v>
       </c>
       <c r="R229">
         <v>177381.6459189914</v>
@@ -14743,13 +14743,13 @@
         <v>0.6805808244200213</v>
       </c>
       <c r="T229">
-        <v>1031648382.30397</v>
+        <v>132396016.9436465</v>
       </c>
       <c r="U229">
         <v>1265078.239886029</v>
       </c>
       <c r="V229">
-        <v>0.6070178035847195</v>
+        <v>0.5452147616663666</v>
       </c>
     </row>
     <row r="230" spans="1:22">
@@ -14825,40 +14825,40 @@
         <v>2.21543874274</v>
       </c>
       <c r="K231">
-        <v>1993294.300739035</v>
+        <v>1673907.404809395</v>
       </c>
       <c r="L231">
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.001088285363528306</v>
+        <v>0.01142385828249438</v>
       </c>
       <c r="N231">
-        <v>464465.6672692817</v>
+        <v>390044.0188052169</v>
       </c>
       <c r="O231">
         <v>0</v>
       </c>
       <c r="P231">
-        <v>0.001784822847024334</v>
+        <v>0.004683873354149406</v>
       </c>
       <c r="Q231">
-        <v>370752.81899542</v>
+        <v>311346.8436849968</v>
       </c>
       <c r="R231">
         <v>0</v>
       </c>
       <c r="S231">
-        <v>0.01138008424268136</v>
+        <v>0.0238916140909503</v>
       </c>
       <c r="T231">
-        <v>2828512.787003736</v>
+        <v>2375298.267299609</v>
       </c>
       <c r="U231">
         <v>0</v>
       </c>
       <c r="V231">
-        <v>0.001663775611186992</v>
+        <v>0.009781621143810681</v>
       </c>
     </row>
     <row r="232" spans="1:22">
@@ -15165,40 +15165,40 @@
         <v>1.08171716611</v>
       </c>
       <c r="K236">
-        <v>1993294.300739035</v>
+        <v>1673907.404809395</v>
       </c>
       <c r="L236">
         <v>0</v>
       </c>
       <c r="M236">
-        <v>0.001088285363528306</v>
+        <v>0.01142385828249438</v>
       </c>
       <c r="N236">
-        <v>464465.6672692817</v>
+        <v>390044.0188052169</v>
       </c>
       <c r="O236">
         <v>0</v>
       </c>
       <c r="P236">
-        <v>0.001784822847024334</v>
+        <v>0.004683873354149406</v>
       </c>
       <c r="Q236">
-        <v>370752.81899542</v>
+        <v>311346.8436849968</v>
       </c>
       <c r="R236">
         <v>0</v>
       </c>
       <c r="S236">
-        <v>0.01138008424268136</v>
+        <v>0.0238916140909503</v>
       </c>
       <c r="T236">
-        <v>2828512.787003736</v>
+        <v>2375298.267299609</v>
       </c>
       <c r="U236">
         <v>0</v>
       </c>
       <c r="V236">
-        <v>0.001663775611186992</v>
+        <v>0.009781621143810681</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -15212,40 +15212,40 @@
         <v>0.167172832711</v>
       </c>
       <c r="K237">
-        <v>1993294.300739035</v>
+        <v>1673907.404809395</v>
       </c>
       <c r="L237">
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.001088285363528306</v>
+        <v>0.01142385828249438</v>
       </c>
       <c r="N237">
-        <v>464465.6672692817</v>
+        <v>390044.0188052169</v>
       </c>
       <c r="O237">
         <v>0</v>
       </c>
       <c r="P237">
-        <v>0.001784822847024334</v>
+        <v>0.004683873354149406</v>
       </c>
       <c r="Q237">
-        <v>370752.81899542</v>
+        <v>311346.8436849968</v>
       </c>
       <c r="R237">
         <v>0</v>
       </c>
       <c r="S237">
-        <v>0.01138008424268136</v>
+        <v>0.0238916140909503</v>
       </c>
       <c r="T237">
-        <v>2828512.787003736</v>
+        <v>2375298.267299609</v>
       </c>
       <c r="U237">
         <v>0</v>
       </c>
       <c r="V237">
-        <v>0.001663775611186992</v>
+        <v>0.009781621143810681</v>
       </c>
     </row>
     <row r="238" spans="1:22">
